--- a/ind_MARZO.xlsx
+++ b/ind_MARZO.xlsx
@@ -963,6 +963,9 @@
     <t xml:space="preserve">C21001110</t>
   </si>
   <si>
+    <t xml:space="preserve">C22191101</t>
+  </si>
+  <si>
     <t xml:space="preserve">C13121104</t>
   </si>
   <si>
@@ -996,6 +999,12 @@
     <t xml:space="preserve">C17091103</t>
   </si>
   <si>
+    <t xml:space="preserve">C10711102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C10711101</t>
+  </si>
+  <si>
     <t xml:space="preserve">C20291108</t>
   </si>
   <si>
@@ -1017,15 +1026,27 @@
     <t xml:space="preserve">C23951101</t>
   </si>
   <si>
+    <t xml:space="preserve">C12001101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C10201201</t>
+  </si>
+  <si>
     <t xml:space="preserve">C20112109</t>
   </si>
   <si>
     <t xml:space="preserve">C10301406</t>
   </si>
   <si>
+    <t xml:space="preserve">C25121101</t>
+  </si>
+  <si>
     <t xml:space="preserve">C11041101</t>
   </si>
   <si>
+    <t xml:space="preserve">C11041201</t>
+  </si>
+  <si>
     <t xml:space="preserve">C11041103</t>
   </si>
   <si>
@@ -1056,6 +1077,9 @@
     <t xml:space="preserve">C23951103</t>
   </si>
   <si>
+    <t xml:space="preserve">C17021201</t>
+  </si>
+  <si>
     <t xml:space="preserve">C20121102</t>
   </si>
   <si>
@@ -1065,58 +1089,34 @@
     <t xml:space="preserve">C25991103</t>
   </si>
   <si>
-    <t xml:space="preserve">C22191101</t>
+    <t xml:space="preserve">C13111101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C13111102</t>
   </si>
   <si>
     <t xml:space="preserve">C11031101</t>
   </si>
   <si>
-    <t xml:space="preserve">C10711102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C10711101</t>
-  </si>
-  <si>
     <t xml:space="preserve">C32501101</t>
   </si>
   <si>
-    <t xml:space="preserve">C12001101</t>
-  </si>
-  <si>
     <t xml:space="preserve">C10401301</t>
   </si>
   <si>
-    <t xml:space="preserve">C10201201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C25121101</t>
-  </si>
-  <si>
     <t xml:space="preserve">C29201101</t>
   </si>
   <si>
-    <t xml:space="preserve">C11041201</t>
-  </si>
-  <si>
     <t xml:space="preserve">C10612101</t>
   </si>
   <si>
     <t xml:space="preserve">C13991101</t>
   </si>
   <si>
-    <t xml:space="preserve">C17021201</t>
-  </si>
-  <si>
     <t xml:space="preserve">C23941101</t>
   </si>
   <si>
     <t xml:space="preserve">0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C13111101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C13111102</t>
   </si>
 </sst>
 </file>
@@ -1509,7 +1509,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>96.087506745708</v>
+        <v>95.8683844247625</v>
       </c>
     </row>
     <row r="9">
@@ -1549,7 +1549,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="n">
-        <v>113.442585974597</v>
+        <v>102.728424240133</v>
       </c>
     </row>
     <row r="14">
@@ -1757,7 +1757,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="n">
-        <v>91.4515575280603</v>
+        <v>100.469732146621</v>
       </c>
     </row>
     <row r="40">
@@ -1781,7 +1781,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="n">
-        <v>96.578919787711</v>
+        <v>96.5091974324007</v>
       </c>
     </row>
     <row r="43">
@@ -1925,7 +1925,7 @@
         <v>60</v>
       </c>
       <c r="B60" t="n">
-        <v>99.9857439421792</v>
+        <v>99.9857552842882</v>
       </c>
     </row>
     <row r="61">
@@ -1933,7 +1933,7 @@
         <v>61</v>
       </c>
       <c r="B61" t="n">
-        <v>102.41927947832</v>
+        <v>102.986399364392</v>
       </c>
     </row>
     <row r="62">
@@ -1941,7 +1941,7 @@
         <v>62</v>
       </c>
       <c r="B62" t="n">
-        <v>101.732490580279</v>
+        <v>106.422290164872</v>
       </c>
     </row>
     <row r="63">
@@ -1957,7 +1957,7 @@
         <v>64</v>
       </c>
       <c r="B64" t="n">
-        <v>94.8617426114933</v>
+        <v>93.208345236413</v>
       </c>
     </row>
     <row r="65">
@@ -1997,7 +1997,7 @@
         <v>69</v>
       </c>
       <c r="B69" t="n">
-        <v>103.78731271229</v>
+        <v>104.816909631973</v>
       </c>
     </row>
     <row r="70">
@@ -2021,7 +2021,7 @@
         <v>72</v>
       </c>
       <c r="B72" t="n">
-        <v>98.9764017665395</v>
+        <v>98.9483388909244</v>
       </c>
     </row>
     <row r="73">
@@ -2281,13 +2281,13 @@
         <v>101</v>
       </c>
       <c r="B6" t="n">
-        <v>66.5908589633019</v>
+        <v>66.5187266783664</v>
       </c>
       <c r="C6" t="n">
         <v>0.655450496482192</v>
       </c>
       <c r="D6" t="n">
-        <v>101.595558048542</v>
+        <v>101.485508112928</v>
       </c>
     </row>
     <row r="7">
@@ -2309,13 +2309,13 @@
         <v>103</v>
       </c>
       <c r="B8" t="n">
-        <v>476.699846768974</v>
+        <v>442.396177988384</v>
       </c>
       <c r="C8" t="n">
         <v>4.34891356745667</v>
       </c>
       <c r="D8" t="n">
-        <v>109.613548159744</v>
+        <v>101.72567725854</v>
       </c>
     </row>
     <row r="9">
@@ -2589,13 +2589,13 @@
         <v>123</v>
       </c>
       <c r="B28" t="n">
-        <v>79.0192561248228</v>
+        <v>86.8114629414617</v>
       </c>
       <c r="C28" t="n">
         <v>0.864055881175967</v>
       </c>
       <c r="D28" t="n">
-        <v>91.4515575280603</v>
+        <v>100.469732146621</v>
       </c>
     </row>
     <row r="29">
@@ -2631,13 +2631,13 @@
         <v>126</v>
       </c>
       <c r="B31" t="n">
-        <v>359.31454919167</v>
+        <v>359.055152454556</v>
       </c>
       <c r="C31" t="n">
         <v>3.72042418761232</v>
       </c>
       <c r="D31" t="n">
-        <v>96.578919787711</v>
+        <v>96.5091974324007</v>
       </c>
     </row>
     <row r="32">
@@ -2855,13 +2855,13 @@
         <v>142</v>
       </c>
       <c r="B47" t="n">
-        <v>247.523482437634</v>
+        <v>247.52351051602</v>
       </c>
       <c r="C47" t="n">
         <v>2.47558774559676</v>
       </c>
       <c r="D47" t="n">
-        <v>99.9857439421792</v>
+        <v>99.9857552842882</v>
       </c>
     </row>
     <row r="48">
@@ -2869,13 +2869,13 @@
         <v>143</v>
       </c>
       <c r="B48" t="n">
-        <v>147.080134239661</v>
+        <v>147.894551890305</v>
       </c>
       <c r="C48" t="n">
         <v>1.4360590602553</v>
       </c>
       <c r="D48" t="n">
-        <v>102.41927947832</v>
+        <v>102.986399364391</v>
       </c>
     </row>
     <row r="49">
@@ -2883,13 +2883,13 @@
         <v>144</v>
       </c>
       <c r="B49" t="n">
-        <v>328.359835600738</v>
+        <v>343.497003793647</v>
       </c>
       <c r="C49" t="n">
         <v>3.22767911930381</v>
       </c>
       <c r="D49" t="n">
-        <v>101.732490580279</v>
+        <v>106.422290164872</v>
       </c>
     </row>
     <row r="50">
@@ -2911,13 +2911,13 @@
         <v>146</v>
       </c>
       <c r="B51" t="n">
-        <v>68.8875946528787</v>
+        <v>67.6869149579975</v>
       </c>
       <c r="C51" t="n">
         <v>0.726189428492877</v>
       </c>
       <c r="D51" t="n">
-        <v>94.8617426114933</v>
+        <v>93.208345236413</v>
       </c>
     </row>
     <row r="52">
@@ -2953,13 +2953,13 @@
         <v>149</v>
       </c>
       <c r="B54" t="n">
-        <v>84.8011737748772</v>
+        <v>85.5068480650932</v>
       </c>
       <c r="C54" t="n">
         <v>0.822053917178609</v>
       </c>
       <c r="D54" t="n">
-        <v>103.157678593547</v>
+        <v>104.016106824919</v>
       </c>
     </row>
     <row r="55">
@@ -2995,13 +2995,13 @@
         <v>152</v>
       </c>
       <c r="B57" t="n">
-        <v>100.584553282098</v>
+        <v>100.556034445717</v>
       </c>
       <c r="C57" t="n">
         <v>1.0162478276322</v>
       </c>
       <c r="D57" t="n">
-        <v>98.9764017665395</v>
+        <v>98.9483388909244</v>
       </c>
     </row>
     <row r="58">
@@ -3345,13 +3345,13 @@
         <v>176</v>
       </c>
       <c r="B3" t="n">
-        <v>66.5908589633019</v>
+        <v>66.5187266783664</v>
       </c>
       <c r="C3" t="n">
         <v>0.655450496482192</v>
       </c>
       <c r="D3" t="n">
-        <v>101.595558048542</v>
+        <v>101.485508112928</v>
       </c>
     </row>
     <row r="4">
@@ -3373,13 +3373,13 @@
         <v>178</v>
       </c>
       <c r="B5" t="n">
-        <v>476.699846768974</v>
+        <v>442.396177988384</v>
       </c>
       <c r="C5" t="n">
         <v>4.34891356745667</v>
       </c>
       <c r="D5" t="n">
-        <v>109.613548159744</v>
+        <v>101.72567725854</v>
       </c>
     </row>
     <row r="6">
@@ -3611,13 +3611,13 @@
         <v>195</v>
       </c>
       <c r="B22" t="n">
-        <v>79.0192561248228</v>
+        <v>86.8114629414617</v>
       </c>
       <c r="C22" t="n">
         <v>0.864055881175967</v>
       </c>
       <c r="D22" t="n">
-        <v>91.4515575280603</v>
+        <v>100.469732146621</v>
       </c>
     </row>
     <row r="23">
@@ -3653,13 +3653,13 @@
         <v>198</v>
       </c>
       <c r="B25" t="n">
-        <v>359.31454919167</v>
+        <v>359.055152454556</v>
       </c>
       <c r="C25" t="n">
         <v>3.72042418761232</v>
       </c>
       <c r="D25" t="n">
-        <v>96.578919787711</v>
+        <v>96.5091974324007</v>
       </c>
     </row>
     <row r="26">
@@ -3863,13 +3863,13 @@
         <v>213</v>
       </c>
       <c r="B40" t="n">
-        <v>247.523482437634</v>
+        <v>247.52351051602</v>
       </c>
       <c r="C40" t="n">
         <v>2.47558774559676</v>
       </c>
       <c r="D40" t="n">
-        <v>99.9857439421792</v>
+        <v>99.9857552842882</v>
       </c>
     </row>
     <row r="41">
@@ -3877,13 +3877,13 @@
         <v>214</v>
       </c>
       <c r="B41" t="n">
-        <v>147.080134239661</v>
+        <v>147.894551890305</v>
       </c>
       <c r="C41" t="n">
         <v>1.4360590602553</v>
       </c>
       <c r="D41" t="n">
-        <v>102.41927947832</v>
+        <v>102.986399364391</v>
       </c>
     </row>
     <row r="42">
@@ -3891,13 +3891,13 @@
         <v>215</v>
       </c>
       <c r="B42" t="n">
-        <v>328.359835600738</v>
+        <v>343.497003793647</v>
       </c>
       <c r="C42" t="n">
         <v>3.22767911930381</v>
       </c>
       <c r="D42" t="n">
-        <v>101.732490580279</v>
+        <v>106.422290164872</v>
       </c>
     </row>
     <row r="43">
@@ -3919,13 +3919,13 @@
         <v>217</v>
       </c>
       <c r="B44" t="n">
-        <v>68.8875946528787</v>
+        <v>67.6869149579975</v>
       </c>
       <c r="C44" t="n">
         <v>0.726189428492877</v>
       </c>
       <c r="D44" t="n">
-        <v>94.8617426114933</v>
+        <v>93.208345236413</v>
       </c>
     </row>
     <row r="45">
@@ -3961,13 +3961,13 @@
         <v>220</v>
       </c>
       <c r="B47" t="n">
-        <v>84.8011737748772</v>
+        <v>85.5068480650932</v>
       </c>
       <c r="C47" t="n">
         <v>0.822053917178609</v>
       </c>
       <c r="D47" t="n">
-        <v>103.157678593547</v>
+        <v>104.016106824919</v>
       </c>
     </row>
     <row r="48">
@@ -4003,13 +4003,13 @@
         <v>223</v>
       </c>
       <c r="B50" t="n">
-        <v>100.584553282098</v>
+        <v>100.556034445717</v>
       </c>
       <c r="C50" t="n">
         <v>1.0162478276322</v>
       </c>
       <c r="D50" t="n">
-        <v>98.9764017665395</v>
+        <v>98.9483388909244</v>
       </c>
     </row>
     <row r="51">
@@ -4353,13 +4353,13 @@
         <v>247</v>
       </c>
       <c r="B3" t="n">
-        <v>66.5908589633019</v>
+        <v>66.5187266783664</v>
       </c>
       <c r="C3" t="n">
         <v>0.655450496482192</v>
       </c>
       <c r="D3" t="n">
-        <v>101.595558048542</v>
+        <v>101.485508112928</v>
       </c>
     </row>
     <row r="4">
@@ -4381,13 +4381,13 @@
         <v>249</v>
       </c>
       <c r="B5" t="n">
-        <v>476.699846768974</v>
+        <v>442.396177988384</v>
       </c>
       <c r="C5" t="n">
         <v>4.34891356745667</v>
       </c>
       <c r="D5" t="n">
-        <v>109.613548159744</v>
+        <v>101.72567725854</v>
       </c>
     </row>
     <row r="6">
@@ -4479,13 +4479,13 @@
         <v>256</v>
       </c>
       <c r="B12" t="n">
-        <v>117.483113216001</v>
+        <v>125.27532003264</v>
       </c>
       <c r="C12" t="n">
         <v>1.24869445208775</v>
       </c>
       <c r="D12" t="n">
-        <v>94.084756298529</v>
+        <v>100.32503934264</v>
       </c>
     </row>
     <row r="13">
@@ -4507,13 +4507,13 @@
         <v>258</v>
       </c>
       <c r="B14" t="n">
-        <v>359.31454919167</v>
+        <v>359.055152454556</v>
       </c>
       <c r="C14" t="n">
         <v>3.72042418761232</v>
       </c>
       <c r="D14" t="n">
-        <v>96.578919787711</v>
+        <v>96.5091974324007</v>
       </c>
     </row>
     <row r="15">
@@ -4619,13 +4619,13 @@
         <v>266</v>
       </c>
       <c r="B22" t="n">
-        <v>499.718080744121</v>
+        <v>500.532526473152</v>
       </c>
       <c r="C22" t="n">
         <v>4.98260867915758</v>
       </c>
       <c r="D22" t="n">
-        <v>100.292459818179</v>
+        <v>100.455917513028</v>
       </c>
     </row>
     <row r="23">
@@ -4633,13 +4633,13 @@
         <v>267</v>
       </c>
       <c r="B23" t="n">
-        <v>328.359835600738</v>
+        <v>343.497003793647</v>
       </c>
       <c r="C23" t="n">
         <v>3.22767911930381</v>
       </c>
       <c r="D23" t="n">
-        <v>101.732490580279</v>
+        <v>106.422290164872</v>
       </c>
     </row>
     <row r="24">
@@ -4647,13 +4647,13 @@
         <v>268</v>
       </c>
       <c r="B24" t="n">
-        <v>84.4684190683364</v>
+        <v>83.2677393734552</v>
       </c>
       <c r="C24" t="n">
         <v>0.879055435751663</v>
       </c>
       <c r="D24" t="n">
-        <v>96.0899798044126</v>
+        <v>94.7241049732598</v>
       </c>
     </row>
     <row r="25">
@@ -4689,13 +4689,13 @@
         <v>271</v>
       </c>
       <c r="B27" t="n">
-        <v>433.183477032946</v>
+        <v>433.860632486781</v>
       </c>
       <c r="C27" t="n">
         <v>4.31627944598932</v>
       </c>
       <c r="D27" t="n">
-        <v>100.360387332071</v>
+        <v>100.517271394447</v>
       </c>
     </row>
     <row r="28">
@@ -4969,13 +4969,13 @@
         <v>290</v>
       </c>
       <c r="B2" t="n">
-        <v>3370.35576027669</v>
+        <v>3335.97995921117</v>
       </c>
       <c r="C2" t="n">
         <v>33.4384946709579</v>
       </c>
       <c r="D2" t="n">
-        <v>100.792687991542</v>
+        <v>99.764657232269</v>
       </c>
     </row>
     <row r="3">
@@ -5011,13 +5011,13 @@
         <v>293</v>
       </c>
       <c r="B5" t="n">
-        <v>205.784688062239</v>
+        <v>213.576894878878</v>
       </c>
       <c r="C5" t="n">
         <v>2.12634831254182</v>
       </c>
       <c r="D5" t="n">
-        <v>96.778447279056</v>
+        <v>100.443042947921</v>
       </c>
     </row>
     <row r="6">
@@ -5025,13 +5025,13 @@
         <v>294</v>
       </c>
       <c r="B6" t="n">
-        <v>359.31454919167</v>
+        <v>359.055152454556</v>
       </c>
       <c r="C6" t="n">
         <v>3.72042418761232</v>
       </c>
       <c r="D6" t="n">
-        <v>96.578919787711</v>
+        <v>96.5091974324007</v>
       </c>
     </row>
     <row r="7">
@@ -5095,13 +5095,13 @@
         <v>299</v>
       </c>
       <c r="B11" t="n">
-        <v>933.680975900572</v>
+        <v>934.495421629602</v>
       </c>
       <c r="C11" t="n">
         <v>9.38482760423656</v>
       </c>
       <c r="D11" t="n">
-        <v>99.4883460063863</v>
+        <v>99.5751292445422</v>
       </c>
     </row>
     <row r="12">
@@ -5109,13 +5109,13 @@
         <v>300</v>
       </c>
       <c r="B12" t="n">
-        <v>328.359835600738</v>
+        <v>343.497003793647</v>
       </c>
       <c r="C12" t="n">
         <v>3.22767911930381</v>
       </c>
       <c r="D12" t="n">
-        <v>101.732490580279</v>
+        <v>106.422290164872</v>
       </c>
     </row>
     <row r="13">
@@ -5123,13 +5123,13 @@
         <v>301</v>
       </c>
       <c r="B13" t="n">
-        <v>559.126150321932</v>
+        <v>557.925470627051</v>
       </c>
       <c r="C13" t="n">
         <v>5.62932445509342</v>
       </c>
       <c r="D13" t="n">
-        <v>99.3238451224879</v>
+        <v>99.110554930306</v>
       </c>
     </row>
     <row r="14">
@@ -5137,13 +5137,13 @@
         <v>302</v>
       </c>
       <c r="B14" t="n">
-        <v>484.164880065056</v>
+        <v>484.842035518891</v>
       </c>
       <c r="C14" t="n">
         <v>4.82560808866417</v>
       </c>
       <c r="D14" t="n">
-        <v>100.332408096382</v>
+        <v>100.472733510588</v>
       </c>
     </row>
     <row r="15">
@@ -5271,7 +5271,7 @@
         <v>311</v>
       </c>
       <c r="B2" t="n">
-        <v>99.8822187285779</v>
+        <v>99.7625266322726</v>
       </c>
     </row>
   </sheetData>
@@ -5468,6 +5468,56 @@
         <v>347</v>
       </c>
     </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>357</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -5489,91 +5539,41 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
         <v>365</v>
       </c>
     </row>

--- a/ind_MARZO.xlsx
+++ b/ind_MARZO.xlsx
@@ -963,40 +963,112 @@
     <t xml:space="preserve">C21001110</t>
   </si>
   <si>
+    <t xml:space="preserve">C13121104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C14101107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C13121102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C10711205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C10611102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C11011102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C22201103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C22201104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C17091101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C17091102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C17091103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C20291108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C20231109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C23921204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C23951105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C23951104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C23951107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C23951101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C20112109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C10301406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C11041101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C11041103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C10301108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C10501201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C10613102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C10791109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C10791105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C31001106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C31001101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C10791111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C23951103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C20121102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C20121101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C25991103</t>
+  </si>
+  <si>
     <t xml:space="preserve">C22191101</t>
   </si>
   <si>
-    <t xml:space="preserve">C13121104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C14101107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C13121102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C10711205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C10611102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C11011102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C22201103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C22201104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C17091101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C17091102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C17091103</t>
+    <t xml:space="preserve">C11031101</t>
   </si>
   <si>
     <t xml:space="preserve">C10711102</t>
@@ -1005,118 +1077,46 @@
     <t xml:space="preserve">C10711101</t>
   </si>
   <si>
-    <t xml:space="preserve">C20291108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C20231109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C23921204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C23951105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C23951104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C23951107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C23951101</t>
+    <t xml:space="preserve">C32501101</t>
   </si>
   <si>
     <t xml:space="preserve">C12001101</t>
   </si>
   <si>
+    <t xml:space="preserve">C10401301</t>
+  </si>
+  <si>
     <t xml:space="preserve">C10201201</t>
   </si>
   <si>
-    <t xml:space="preserve">C20112109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C10301406</t>
-  </si>
-  <si>
     <t xml:space="preserve">C25121101</t>
   </si>
   <si>
-    <t xml:space="preserve">C11041101</t>
+    <t xml:space="preserve">C29201101</t>
   </si>
   <si>
     <t xml:space="preserve">C11041201</t>
   </si>
   <si>
-    <t xml:space="preserve">C11041103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C10301108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C10501201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C10613102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C10791109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C10791105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C31001106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C31001101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C10791111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C23951103</t>
+    <t xml:space="preserve">C10612101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C13991101</t>
   </si>
   <si>
     <t xml:space="preserve">C17021201</t>
   </si>
   <si>
-    <t xml:space="preserve">C20121102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C20121101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C25991103</t>
+    <t xml:space="preserve">C23941101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0</t>
   </si>
   <si>
     <t xml:space="preserve">C13111101</t>
   </si>
   <si>
     <t xml:space="preserve">C13111102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C11031101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C32501101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C10401301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C29201101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C10612101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C13991101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C23941101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0</t>
   </si>
 </sst>
 </file>
@@ -1509,7 +1509,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>95.8683844247625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1565,7 +1565,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="n">
-        <v>99.2440317930441</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1629,7 +1629,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1741,7 +1741,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="n">
-        <v>100.507243126187</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1957,7 +1957,7 @@
         <v>64</v>
       </c>
       <c r="B64" t="n">
-        <v>93.208345236413</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2281,13 +2281,13 @@
         <v>101</v>
       </c>
       <c r="B6" t="n">
-        <v>66.5187266783664</v>
+        <v>34.9600721707327</v>
       </c>
       <c r="C6" t="n">
         <v>0.655450496482192</v>
       </c>
       <c r="D6" t="n">
-        <v>101.485508112928</v>
+        <v>53.3374714922998</v>
       </c>
     </row>
     <row r="7">
@@ -2309,13 +2309,13 @@
         <v>103</v>
       </c>
       <c r="B8" t="n">
-        <v>442.396177988384</v>
+        <v>352.361879530556</v>
       </c>
       <c r="C8" t="n">
         <v>4.34891356745667</v>
       </c>
       <c r="D8" t="n">
-        <v>101.72567725854</v>
+        <v>81.022966785846</v>
       </c>
     </row>
     <row r="9">
@@ -2393,13 +2393,13 @@
         <v>109</v>
       </c>
       <c r="B14" t="n">
-        <v>310.48921384565</v>
+        <v>71.5805335740662</v>
       </c>
       <c r="C14" t="n">
         <v>3.11173572411807</v>
       </c>
       <c r="D14" t="n">
-        <v>99.7800717583912</v>
+        <v>23.0034102893984</v>
       </c>
     </row>
     <row r="15">
@@ -2561,13 +2561,13 @@
         <v>121</v>
       </c>
       <c r="B26" t="n">
-        <v>18.7653612715831</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0.186706556541633</v>
       </c>
       <c r="D26" t="n">
-        <v>100.507243126187</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2911,13 +2911,13 @@
         <v>146</v>
       </c>
       <c r="B51" t="n">
-        <v>67.6869149579975</v>
+        <v>0</v>
       </c>
       <c r="C51" t="n">
         <v>0.726189428492877</v>
       </c>
       <c r="D51" t="n">
-        <v>93.208345236413</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -3345,13 +3345,13 @@
         <v>176</v>
       </c>
       <c r="B3" t="n">
-        <v>66.5187266783664</v>
+        <v>34.9600721707327</v>
       </c>
       <c r="C3" t="n">
         <v>0.655450496482192</v>
       </c>
       <c r="D3" t="n">
-        <v>101.485508112928</v>
+        <v>53.3374714922998</v>
       </c>
     </row>
     <row r="4">
@@ -3373,13 +3373,13 @@
         <v>178</v>
       </c>
       <c r="B5" t="n">
-        <v>442.396177988384</v>
+        <v>352.361879530556</v>
       </c>
       <c r="C5" t="n">
         <v>4.34891356745667</v>
       </c>
       <c r="D5" t="n">
-        <v>101.72567725854</v>
+        <v>81.022966785846</v>
       </c>
     </row>
     <row r="6">
@@ -3429,13 +3429,13 @@
         <v>182</v>
       </c>
       <c r="B9" t="n">
-        <v>540.709974906987</v>
+        <v>301.801294635403</v>
       </c>
       <c r="C9" t="n">
         <v>5.42590686329924</v>
       </c>
       <c r="D9" t="n">
-        <v>99.6533830251202</v>
+        <v>55.6222770200468</v>
       </c>
     </row>
     <row r="10">
@@ -3583,13 +3583,13 @@
         <v>193</v>
       </c>
       <c r="B20" t="n">
-        <v>18.7653612715831</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0.186706556541633</v>
       </c>
       <c r="D20" t="n">
-        <v>100.507243126187</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -3919,13 +3919,13 @@
         <v>217</v>
       </c>
       <c r="B44" t="n">
-        <v>67.6869149579975</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0.726189428492877</v>
       </c>
       <c r="D44" t="n">
-        <v>93.208345236413</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4353,13 +4353,13 @@
         <v>247</v>
       </c>
       <c r="B3" t="n">
-        <v>66.5187266783664</v>
+        <v>34.9600721707327</v>
       </c>
       <c r="C3" t="n">
         <v>0.655450496482192</v>
       </c>
       <c r="D3" t="n">
-        <v>101.485508112928</v>
+        <v>53.3374714922998</v>
       </c>
     </row>
     <row r="4">
@@ -4381,13 +4381,13 @@
         <v>249</v>
       </c>
       <c r="B5" t="n">
-        <v>442.396177988384</v>
+        <v>352.361879530556</v>
       </c>
       <c r="C5" t="n">
         <v>4.34891356745667</v>
       </c>
       <c r="D5" t="n">
-        <v>101.72567725854</v>
+        <v>81.022966785846</v>
       </c>
     </row>
     <row r="6">
@@ -4423,13 +4423,13 @@
         <v>252</v>
       </c>
       <c r="B8" t="n">
-        <v>1284.7477770438</v>
+        <v>1045.83909677222</v>
       </c>
       <c r="C8" t="n">
         <v>12.8223860199456</v>
       </c>
       <c r="D8" t="n">
-        <v>100.195687062091</v>
+        <v>81.5635323367575</v>
       </c>
     </row>
     <row r="9">
@@ -4465,13 +4465,13 @@
         <v>255</v>
       </c>
       <c r="B11" t="n">
-        <v>18.7653612715831</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0.186706556541633</v>
       </c>
       <c r="D11" t="n">
-        <v>100.507243126187</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -4647,13 +4647,13 @@
         <v>268</v>
       </c>
       <c r="B24" t="n">
-        <v>83.2677393734552</v>
+        <v>15.5808244154577</v>
       </c>
       <c r="C24" t="n">
         <v>0.879055435751663</v>
       </c>
       <c r="D24" t="n">
-        <v>94.7241049732598</v>
+        <v>17.7245072173802</v>
       </c>
     </row>
     <row r="25">
@@ -4969,13 +4969,13 @@
         <v>290</v>
       </c>
       <c r="B2" t="n">
-        <v>3335.97995921117</v>
+        <v>2975.47832597412</v>
       </c>
       <c r="C2" t="n">
         <v>33.4384946709579</v>
       </c>
       <c r="D2" t="n">
-        <v>99.764657232269</v>
+        <v>88.9836206818962</v>
       </c>
     </row>
     <row r="3">
@@ -4997,13 +4997,13 @@
         <v>292</v>
       </c>
       <c r="B4" t="n">
-        <v>18.7653612715831</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0.186706556541633</v>
       </c>
       <c r="D4" t="n">
-        <v>100.507243126187</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -5123,13 +5123,13 @@
         <v>301</v>
       </c>
       <c r="B13" t="n">
-        <v>557.925470627051</v>
+        <v>490.238555669053</v>
       </c>
       <c r="C13" t="n">
         <v>5.62932445509342</v>
       </c>
       <c r="D13" t="n">
-        <v>99.110554930306</v>
+        <v>87.0865695484092</v>
       </c>
     </row>
     <row r="14">
@@ -5271,7 +5271,7 @@
         <v>311</v>
       </c>
       <c r="B2" t="n">
-        <v>99.7625266322726</v>
+        <v>95.075946438016</v>
       </c>
     </row>
   </sheetData>
@@ -5468,56 +5468,6 @@
         <v>347</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s">
-        <v>357</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -5539,41 +5489,91 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
         <v>365</v>
       </c>
     </row>

--- a/ind_MARZO.xlsx
+++ b/ind_MARZO.xlsx
@@ -19,401 +19,773 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="588">
   <si>
     <t xml:space="preserve">PRODUCTO</t>
   </si>
   <si>
+    <t xml:space="preserve">DESCRIPCION</t>
+  </si>
+  <si>
     <t xml:space="preserve">indice</t>
   </si>
   <si>
+    <t xml:space="preserve">ponderacion</t>
+  </si>
+  <si>
     <t xml:space="preserve">C101011</t>
   </si>
   <si>
+    <t xml:space="preserve">Carne y despojos comestibles de ganado bovino</t>
+  </si>
+  <si>
     <t xml:space="preserve">C101012</t>
   </si>
   <si>
+    <t xml:space="preserve">Cueros y pieles de bovino y de otros animales</t>
+  </si>
+  <si>
     <t xml:space="preserve">C101021</t>
   </si>
   <si>
+    <t xml:space="preserve">Carne y despojos comestibles de ganado porcino</t>
+  </si>
+  <si>
     <t xml:space="preserve">C101031</t>
   </si>
   <si>
+    <t xml:space="preserve">Carne y despojos comestibles de aves</t>
+  </si>
+  <si>
     <t xml:space="preserve">C101041</t>
   </si>
   <si>
+    <t xml:space="preserve">Carne y despojos de otros animales y conservas y preparados de carne</t>
+  </si>
+  <si>
     <t xml:space="preserve">C102011</t>
   </si>
   <si>
+    <t xml:space="preserve">Pescado congelado, preparado o en conserva y sus productos</t>
+  </si>
+  <si>
     <t xml:space="preserve">C102012</t>
   </si>
   <si>
+    <t xml:space="preserve">Crustáceos, moluscos y demás invertebrados acuáticos congelados, preparados o en conserva y sus productos</t>
+  </si>
+  <si>
     <t xml:space="preserve">C103011</t>
   </si>
   <si>
+    <t xml:space="preserve">Vegetales preparados o en conserva, legumbres y papas</t>
+  </si>
+  <si>
     <t xml:space="preserve">C103012</t>
   </si>
   <si>
+    <t xml:space="preserve">Preparaciones y conservas de frutas secas y  nueces sin cascara</t>
+  </si>
+  <si>
     <t xml:space="preserve">C103013</t>
   </si>
   <si>
+    <t xml:space="preserve">Jugos de frutas</t>
+  </si>
+  <si>
     <t xml:space="preserve">C103014</t>
   </si>
   <si>
+    <t xml:space="preserve">Otras frutas y nueces (PREPARADOS O CONSERVADOS DE OTRO MODO, INCLUSO CON ADICION DE AZUCAR U OTRO EDULCORANTE O ALCOHOL)</t>
+  </si>
+  <si>
     <t xml:space="preserve">C104011</t>
   </si>
   <si>
+    <t xml:space="preserve">Aceites de origen vegetal</t>
+  </si>
+  <si>
     <t xml:space="preserve">C104012</t>
   </si>
   <si>
+    <t xml:space="preserve">Margarina y preparaciones similares</t>
+  </si>
+  <si>
     <t xml:space="preserve">C104013</t>
   </si>
   <si>
+    <t xml:space="preserve">Grasas y aceites de origen animal y demás grasas y aceites de origen vegetal</t>
+  </si>
+  <si>
     <t xml:space="preserve">C105011</t>
   </si>
   <si>
+    <t xml:space="preserve">Leche líquida y crema procesadas</t>
+  </si>
+  <si>
     <t xml:space="preserve">C105012</t>
   </si>
   <si>
+    <t xml:space="preserve">Otros productos lácteos n.c.p.</t>
+  </si>
+  <si>
     <t xml:space="preserve">C106111</t>
   </si>
   <si>
+    <t xml:space="preserve">Harina de trigo</t>
+  </si>
+  <si>
     <t xml:space="preserve">C106121</t>
   </si>
   <si>
+    <t xml:space="preserve">Arroz sin cáscara</t>
+  </si>
+  <si>
     <t xml:space="preserve">C106131</t>
   </si>
   <si>
+    <t xml:space="preserve">Otros productos de molinería n.c.p.</t>
+  </si>
+  <si>
     <t xml:space="preserve">C106132</t>
   </si>
   <si>
+    <t xml:space="preserve">Desechos de la industria alimenticia</t>
+  </si>
+  <si>
     <t xml:space="preserve">C106211</t>
   </si>
   <si>
+    <t xml:space="preserve">Almidónes y sus productos, azúcares y jarabes de azúcar, n.c.p.</t>
+  </si>
+  <si>
     <t xml:space="preserve">C107111</t>
   </si>
   <si>
+    <t xml:space="preserve">Pan</t>
+  </si>
+  <si>
     <t xml:space="preserve">C107112</t>
   </si>
   <si>
+    <t xml:space="preserve">Otros productos de panadería y repostería n.c.p.</t>
+  </si>
+  <si>
     <t xml:space="preserve">C107121</t>
   </si>
   <si>
+    <t xml:space="preserve">Tortillas de maíz, incluso tostadas, horneadas o fritas</t>
+  </si>
+  <si>
     <t xml:space="preserve">C107211</t>
   </si>
   <si>
+    <t xml:space="preserve">Azúcar de caña sin refinar, refinada y los demás azúcares n.c.p.</t>
+  </si>
+  <si>
     <t xml:space="preserve">C107311</t>
   </si>
   <si>
+    <t xml:space="preserve">Cacao, chocolate y productos de confitería</t>
+  </si>
+  <si>
     <t xml:space="preserve">C107411</t>
   </si>
   <si>
+    <t xml:space="preserve">Macarrones, fideos y productos farináceos similares</t>
+  </si>
+  <si>
     <t xml:space="preserve">C107511</t>
   </si>
   <si>
+    <t xml:space="preserve">Platos preparados</t>
+  </si>
+  <si>
     <t xml:space="preserve">C107911</t>
   </si>
   <si>
+    <t xml:space="preserve">Productos alimenticios n.c.p.</t>
+  </si>
+  <si>
     <t xml:space="preserve">C108011</t>
   </si>
   <si>
+    <t xml:space="preserve">Preparados para alimentación animal</t>
+  </si>
+  <si>
     <t xml:space="preserve">C110111</t>
   </si>
   <si>
+    <t xml:space="preserve">Aguardientes, licores y demás bebidas espirituosas</t>
+  </si>
+  <si>
     <t xml:space="preserve">C110211</t>
   </si>
   <si>
+    <t xml:space="preserve">Vinos</t>
+  </si>
+  <si>
     <t xml:space="preserve">C110311</t>
   </si>
   <si>
+    <t xml:space="preserve">Cerveza de malta</t>
+  </si>
+  <si>
     <t xml:space="preserve">C110411</t>
   </si>
   <si>
+    <t xml:space="preserve">Bebidas no alcohólicas</t>
+  </si>
+  <si>
     <t xml:space="preserve">C110412</t>
   </si>
   <si>
+    <t xml:space="preserve">Aguas minerales y otras aguas embotelladas</t>
+  </si>
+  <si>
     <t xml:space="preserve">C120011</t>
   </si>
   <si>
+    <t xml:space="preserve">Productos del tabaco</t>
+  </si>
+  <si>
     <t xml:space="preserve">C131111</t>
   </si>
   <si>
+    <t xml:space="preserve">Hilados e hilos</t>
+  </si>
+  <si>
     <t xml:space="preserve">C131211</t>
   </si>
   <si>
+    <t xml:space="preserve">Tejidos y telas textiles</t>
+  </si>
+  <si>
     <t xml:space="preserve">C139211</t>
   </si>
   <si>
+    <t xml:space="preserve">Ropa de cama, mantelería, toallas de baño y paños de cocina</t>
+  </si>
+  <si>
     <t xml:space="preserve">C139911</t>
   </si>
   <si>
+    <t xml:space="preserve">Otros productos textiles (artículos textiles excepto prendas de vestir)</t>
+  </si>
+  <si>
     <t xml:space="preserve">C141011</t>
   </si>
   <si>
+    <t xml:space="preserve">Prendas de vestir, adobo y teñido de pieles</t>
+  </si>
+  <si>
     <t xml:space="preserve">C151111</t>
   </si>
   <si>
+    <t xml:space="preserve">Cuero de piel curtida o adobada y cuero artificial o regenerado</t>
+  </si>
+  <si>
     <t xml:space="preserve">C152011</t>
   </si>
   <si>
+    <t xml:space="preserve">Calzado y sus partes, de cualquier material y de cualquier uso</t>
+  </si>
+  <si>
     <t xml:space="preserve">C161011</t>
   </si>
   <si>
+    <t xml:space="preserve">Madera aserrada y acepillada</t>
+  </si>
+  <si>
     <t xml:space="preserve">C161012</t>
   </si>
   <si>
+    <t xml:space="preserve">Desperdicios de madera</t>
+  </si>
+  <si>
     <t xml:space="preserve">C162111</t>
   </si>
   <si>
+    <t xml:space="preserve">Productos aglomerados de madera</t>
+  </si>
+  <si>
     <t xml:space="preserve">C162211</t>
   </si>
   <si>
+    <t xml:space="preserve">Productos de madera para edificios y construcciones</t>
+  </si>
+  <si>
     <t xml:space="preserve">C162311</t>
   </si>
   <si>
+    <t xml:space="preserve">Productos o recipientes de madera</t>
+  </si>
+  <si>
     <t xml:space="preserve">C162911</t>
   </si>
   <si>
+    <t xml:space="preserve">Otros productos de madera n.c.p.</t>
+  </si>
+  <si>
     <t xml:space="preserve">C170211</t>
   </si>
   <si>
+    <t xml:space="preserve">Envases de papel y cartón</t>
+  </si>
+  <si>
     <t xml:space="preserve">C170212</t>
   </si>
   <si>
+    <t xml:space="preserve">Desperdicios de papel y cartón</t>
+  </si>
+  <si>
     <t xml:space="preserve">C170911</t>
   </si>
   <si>
+    <t xml:space="preserve">Pasta de papel y papel</t>
+  </si>
+  <si>
     <t xml:space="preserve">C181111</t>
   </si>
   <si>
+    <t xml:space="preserve">Productos de la impresión</t>
+  </si>
+  <si>
     <t xml:space="preserve">C201111</t>
   </si>
   <si>
+    <t xml:space="preserve">Alcoholes</t>
+  </si>
+  <si>
     <t xml:space="preserve">C201121</t>
   </si>
   <si>
+    <t xml:space="preserve">Productos Químicos Básicos excepto alcoholes</t>
+  </si>
+  <si>
     <t xml:space="preserve">C201211</t>
   </si>
   <si>
+    <t xml:space="preserve">Abonos, fertilizantes</t>
+  </si>
+  <si>
     <t xml:space="preserve">C202111</t>
   </si>
   <si>
+    <t xml:space="preserve">Pesticidas</t>
+  </si>
+  <si>
     <t xml:space="preserve">C202211</t>
   </si>
   <si>
+    <t xml:space="preserve">Pinturas y barnices y productos relacionados, colores artisticos, tinta</t>
+  </si>
+  <si>
     <t xml:space="preserve">C202311</t>
   </si>
   <si>
+    <t xml:space="preserve">Jabón, preparados de limpieza, perfumes y preparados de toilet</t>
+  </si>
+  <si>
     <t xml:space="preserve">C202911</t>
   </si>
   <si>
+    <t xml:space="preserve">Productos químicos n.c.p. y fibras sintéticas o artificiales</t>
+  </si>
+  <si>
     <t xml:space="preserve">C210011</t>
   </si>
   <si>
+    <t xml:space="preserve">Productos Farmaceúticos</t>
+  </si>
+  <si>
     <t xml:space="preserve">C221111</t>
   </si>
   <si>
+    <t xml:space="preserve">Productos de caucho (bandas y tacos)</t>
+  </si>
+  <si>
     <t xml:space="preserve">C221911</t>
   </si>
   <si>
+    <t xml:space="preserve">Productos de caucho vulcanizado</t>
+  </si>
+  <si>
     <t xml:space="preserve">C222011</t>
   </si>
   <si>
+    <t xml:space="preserve">Productos de plástico</t>
+  </si>
+  <si>
     <t xml:space="preserve">C222012</t>
   </si>
   <si>
+    <t xml:space="preserve">Desperdicios plasticos</t>
+  </si>
+  <si>
     <t xml:space="preserve">C231011</t>
   </si>
   <si>
+    <t xml:space="preserve">Vidrio y productos de vidrio</t>
+  </si>
+  <si>
     <t xml:space="preserve">C239211</t>
   </si>
   <si>
+    <t xml:space="preserve">Productos no estructurales de cerámica</t>
+  </si>
+  <si>
     <t xml:space="preserve">C239212</t>
   </si>
   <si>
+    <t xml:space="preserve">Productos refractarios y productos estructurales de arcilla no refractarios</t>
+  </si>
+  <si>
     <t xml:space="preserve">C239311</t>
   </si>
   <si>
+    <t xml:space="preserve">Productos de porcelana y de cerámica n.c.p.</t>
+  </si>
+  <si>
     <t xml:space="preserve">C239411</t>
   </si>
   <si>
+    <t xml:space="preserve">Cemento, cal y yeso</t>
+  </si>
+  <si>
     <t xml:space="preserve">C239511</t>
   </si>
   <si>
+    <t xml:space="preserve">Artículos de hormigón, cemento y yeso</t>
+  </si>
+  <si>
     <t xml:space="preserve">C239611</t>
   </si>
   <si>
+    <t xml:space="preserve">Piedras talladas para construcción</t>
+  </si>
+  <si>
     <t xml:space="preserve">C239911</t>
   </si>
   <si>
+    <t xml:space="preserve">Otros productos minerales no metálicos n.c.p.</t>
+  </si>
+  <si>
     <t xml:space="preserve">C241011</t>
   </si>
   <si>
+    <t xml:space="preserve">Métales básicos de hierro y acero</t>
+  </si>
+  <si>
     <t xml:space="preserve">C242011</t>
   </si>
   <si>
+    <t xml:space="preserve">Residuos o desechos metales no ferrosos</t>
+  </si>
+  <si>
     <t xml:space="preserve">C243111</t>
   </si>
   <si>
+    <t xml:space="preserve">Residuos o desechos de hierro y  acero</t>
+  </si>
+  <si>
     <t xml:space="preserve">C251111</t>
   </si>
   <si>
+    <t xml:space="preserve">Productos metálicos estructurales y sus partes de hierro o de acero</t>
+  </si>
+  <si>
     <t xml:space="preserve">C251211</t>
   </si>
   <si>
+    <t xml:space="preserve">Productos de metal para almacenaje</t>
+  </si>
+  <si>
     <t xml:space="preserve">C259911</t>
   </si>
   <si>
+    <t xml:space="preserve">Otros productos elaborados de metal</t>
+  </si>
+  <si>
     <t xml:space="preserve">C281911</t>
   </si>
   <si>
+    <t xml:space="preserve">Maquinaria para usos generales, sus partes y piezas</t>
+  </si>
+  <si>
     <t xml:space="preserve">C282511</t>
   </si>
   <si>
+    <t xml:space="preserve">Maquinaria para alimentos y bebidas</t>
+  </si>
+  <si>
     <t xml:space="preserve">C292011</t>
   </si>
   <si>
+    <t xml:space="preserve">Fabricación de remolques y semirremolques</t>
+  </si>
+  <si>
     <t xml:space="preserve">C293011</t>
   </si>
   <si>
+    <t xml:space="preserve">Partes y accesorios para transporte</t>
+  </si>
+  <si>
     <t xml:space="preserve">C302011</t>
   </si>
   <si>
+    <t xml:space="preserve">Equipo de transporte</t>
+  </si>
+  <si>
     <t xml:space="preserve">C309111</t>
   </si>
   <si>
+    <t xml:space="preserve">Motocicletas y bicicletas o triciclos con motor auxiliar</t>
+  </si>
+  <si>
     <t xml:space="preserve">C310011</t>
   </si>
   <si>
+    <t xml:space="preserve">Muebles</t>
+  </si>
+  <si>
     <t xml:space="preserve">C321111</t>
   </si>
   <si>
+    <t xml:space="preserve">Joyas y artículos conexos</t>
+  </si>
+  <si>
     <t xml:space="preserve">C321211</t>
   </si>
   <si>
+    <t xml:space="preserve">Otros articulos de joyeria n.c.p</t>
+  </si>
+  <si>
     <t xml:space="preserve">C322111</t>
   </si>
   <si>
+    <t xml:space="preserve">Instrumentos musicales</t>
+  </si>
+  <si>
     <t xml:space="preserve">C323011</t>
   </si>
   <si>
+    <t xml:space="preserve">Artículos deportivos</t>
+  </si>
+  <si>
     <t xml:space="preserve">C325011</t>
   </si>
   <si>
+    <t xml:space="preserve">Aparatos médicos, instrumentos ópticos y de precisión, relojes</t>
+  </si>
+  <si>
     <t xml:space="preserve">C329011</t>
   </si>
   <si>
+    <t xml:space="preserve">Otros artículos n.c.p.</t>
+  </si>
+  <si>
     <t xml:space="preserve">ACTIVIDAD</t>
   </si>
   <si>
     <t xml:space="preserve">sum1</t>
   </si>
   <si>
-    <t xml:space="preserve">sum2</t>
-  </si>
-  <si>
     <t xml:space="preserve">C10101</t>
   </si>
   <si>
+    <t xml:space="preserve">Elaboración y conservación de carne de ganado bovino</t>
+  </si>
+  <si>
     <t xml:space="preserve">C10102</t>
   </si>
   <si>
+    <t xml:space="preserve">Elaboración y conservación de carne de ganado porcino</t>
+  </si>
+  <si>
     <t xml:space="preserve">C10103</t>
   </si>
   <si>
+    <t xml:space="preserve">Elaboración y conservación de carne de aves de corral</t>
+  </si>
+  <si>
     <t xml:space="preserve">C10104</t>
   </si>
   <si>
+    <t xml:space="preserve">Elaboración de productos cárnicos y elaboración de otros productos de origen animal n.c.p.</t>
+  </si>
+  <si>
     <t xml:space="preserve">C10201</t>
   </si>
   <si>
+    <t xml:space="preserve">Elaboración y conservación de pescado, crustáceos y moluscos</t>
+  </si>
+  <si>
     <t xml:space="preserve">C10301</t>
   </si>
   <si>
+    <t xml:space="preserve">Elaboración y conservación de frutas, legumbres y hortalizas</t>
+  </si>
+  <si>
     <t xml:space="preserve">C10401</t>
   </si>
   <si>
+    <t xml:space="preserve">Elaboración de aceites y grasas de origen vegetal y animal</t>
+  </si>
+  <si>
     <t xml:space="preserve">C10501</t>
   </si>
   <si>
+    <t xml:space="preserve">Elaboración de productos lácteos</t>
+  </si>
+  <si>
     <t xml:space="preserve">C10611</t>
   </si>
   <si>
+    <t xml:space="preserve">Elaboración de harina de trigo</t>
+  </si>
+  <si>
     <t xml:space="preserve">C10612</t>
   </si>
   <si>
+    <t xml:space="preserve">Beneficios de arroz</t>
+  </si>
+  <si>
     <t xml:space="preserve">C10613</t>
   </si>
   <si>
+    <t xml:space="preserve">Elaboración de otros productos de molinería n.c.p. por cuenta propia</t>
+  </si>
+  <si>
     <t xml:space="preserve">C10621</t>
   </si>
   <si>
+    <t xml:space="preserve">Elaboración de almidones y productos derivados del almidón</t>
+  </si>
+  <si>
     <t xml:space="preserve">C10711</t>
   </si>
   <si>
+    <t xml:space="preserve">Elaboración de productos de panadería</t>
+  </si>
+  <si>
     <t xml:space="preserve">C10712</t>
   </si>
   <si>
+    <t xml:space="preserve">Elaboración de tortillas de maíz</t>
+  </si>
+  <si>
     <t xml:space="preserve">C10721</t>
   </si>
   <si>
+    <t xml:space="preserve">Elaboración de azúcar</t>
+  </si>
+  <si>
     <t xml:space="preserve">C10731</t>
   </si>
   <si>
+    <t xml:space="preserve">Elaboración de cacao y chocolate y de productos de confitería</t>
+  </si>
+  <si>
     <t xml:space="preserve">C10741</t>
   </si>
   <si>
+    <t xml:space="preserve">Elaboración de macarrones, fideos, alcuzcuz y productos farináceos similares</t>
+  </si>
+  <si>
     <t xml:space="preserve">C10751</t>
   </si>
   <si>
+    <t xml:space="preserve">Elaboración de otros productos alimenticios n.c.p  incluyendo comidas y platos preparados</t>
+  </si>
+  <si>
     <t xml:space="preserve">C10791</t>
   </si>
   <si>
     <t xml:space="preserve">C10801</t>
   </si>
   <si>
+    <t xml:space="preserve">Elaboración de alimentos preparados para animales</t>
+  </si>
+  <si>
     <t xml:space="preserve">C11011</t>
   </si>
   <si>
+    <t xml:space="preserve">Destilación, rectificación y mezcla de bebidas alcohólicas</t>
+  </si>
+  <si>
     <t xml:space="preserve">C11021</t>
   </si>
   <si>
+    <t xml:space="preserve">Elaboración de vinos</t>
+  </si>
+  <si>
     <t xml:space="preserve">C11031</t>
   </si>
   <si>
+    <t xml:space="preserve">Elaboración de bebidas malteadas y de malta</t>
+  </si>
+  <si>
     <t xml:space="preserve">C11041</t>
   </si>
   <si>
+    <t xml:space="preserve">Elaboración de bebidas no alcohólicas; producción de aguas minerales y otras aguas embotelladas</t>
+  </si>
+  <si>
     <t xml:space="preserve">C12001</t>
   </si>
   <si>
+    <t xml:space="preserve">Elaboración de productos de tabaco</t>
+  </si>
+  <si>
     <t xml:space="preserve">C13111</t>
   </si>
   <si>
+    <t xml:space="preserve">Hilatura, tejedura y acabado de productos textiles</t>
+  </si>
+  <si>
     <t xml:space="preserve">C13121</t>
   </si>
   <si>
     <t xml:space="preserve">C13921</t>
   </si>
   <si>
+    <t xml:space="preserve">Fabricación de otros productos textiles</t>
+  </si>
+  <si>
     <t xml:space="preserve">C13991</t>
   </si>
   <si>
     <t xml:space="preserve">C14101</t>
   </si>
   <si>
+    <t xml:space="preserve">Fabricación de prendas de vestir</t>
+  </si>
+  <si>
     <t xml:space="preserve">C15111</t>
   </si>
   <si>
+    <t xml:space="preserve">Curtido, adobo, teñido de cueros y pieles; fabricación de maletas, bolsos de mano y artículos similares, y  artículos de talabartería y guarnicionería</t>
+  </si>
+  <si>
     <t xml:space="preserve">C15201</t>
   </si>
   <si>
+    <t xml:space="preserve">Fabricación de calzado de cualquier material y de cualquier uso; partes de calzado de cuero</t>
+  </si>
+  <si>
     <t xml:space="preserve">C16101</t>
   </si>
   <si>
+    <t xml:space="preserve">Aserrado y acepilladura de madera</t>
+  </si>
+  <si>
     <t xml:space="preserve">C16211</t>
   </si>
   <si>
+    <t xml:space="preserve">Fabricación de productos de madera, productos de corcho, paja y materiales trenzables</t>
+  </si>
+  <si>
     <t xml:space="preserve">C16221</t>
   </si>
   <si>
@@ -426,69 +798,117 @@
     <t xml:space="preserve">C17021</t>
   </si>
   <si>
+    <t xml:space="preserve">Fabricación de papel y productos de papel</t>
+  </si>
+  <si>
     <t xml:space="preserve">C17091</t>
   </si>
   <si>
     <t xml:space="preserve">C18111</t>
   </si>
   <si>
+    <t xml:space="preserve">Impresión y actividades de servicios relacionados con la impresión y reproducción de grabaciones.</t>
+  </si>
+  <si>
     <t xml:space="preserve">C20111</t>
   </si>
   <si>
+    <t xml:space="preserve">Fabricación de alcoholes</t>
+  </si>
+  <si>
     <t xml:space="preserve">C20112</t>
   </si>
   <si>
+    <t xml:space="preserve">Fabricación de otras sustancias químicas básicas, otros productos químicos y fibras artificiales</t>
+  </si>
+  <si>
     <t xml:space="preserve">C20121</t>
   </si>
   <si>
+    <t xml:space="preserve">Fabricación de abonos , compuestos de nitrógeno, plaguicidas y otros productos químicos de uso agropecuario</t>
+  </si>
+  <si>
     <t xml:space="preserve">C20211</t>
   </si>
   <si>
     <t xml:space="preserve">C20221</t>
   </si>
   <si>
+    <t xml:space="preserve">Fabricación de pinturas, barnices y productos de revestimiento similares, tintas de imprenta y masillas</t>
+  </si>
+  <si>
     <t xml:space="preserve">C20231</t>
   </si>
   <si>
+    <t xml:space="preserve">Fabricación de jabones y detergentes, preparados para limpiar y pulir, perfumes y preparados de tocador</t>
+  </si>
+  <si>
     <t xml:space="preserve">C20291</t>
   </si>
   <si>
     <t xml:space="preserve">C21001</t>
   </si>
   <si>
+    <t xml:space="preserve">Fabricación de productos farmacéuticos, sustancias químicas medicinales y productos botánicos de uso farmacéutico</t>
+  </si>
+  <si>
     <t xml:space="preserve">C22111</t>
   </si>
   <si>
+    <t xml:space="preserve">Fabricación de productos de caucho</t>
+  </si>
+  <si>
     <t xml:space="preserve">C22191</t>
   </si>
   <si>
     <t xml:space="preserve">C22201</t>
   </si>
   <si>
+    <t xml:space="preserve">Fabricación de productos de plástico</t>
+  </si>
+  <si>
     <t xml:space="preserve">C23101</t>
   </si>
   <si>
+    <t xml:space="preserve">Fabricación de vidrio y productos de vidrio</t>
+  </si>
+  <si>
     <t xml:space="preserve">C23921</t>
   </si>
   <si>
+    <t xml:space="preserve">Fabricación de productos refractarios y no refractarios de arcilla, cerámica, porcelana y otros minerales no metálicos</t>
+  </si>
+  <si>
     <t xml:space="preserve">C23931</t>
   </si>
   <si>
     <t xml:space="preserve">C23941</t>
   </si>
   <si>
+    <t xml:space="preserve">Fabricación de cemento, cal y yeso</t>
+  </si>
+  <si>
     <t xml:space="preserve">C23951</t>
   </si>
   <si>
+    <t xml:space="preserve">Fabricación de artículos de hormigón, cemento y yeso</t>
+  </si>
+  <si>
     <t xml:space="preserve">C23961</t>
   </si>
   <si>
+    <t xml:space="preserve">Fabricación de otros productos minerales no metálicos</t>
+  </si>
+  <si>
     <t xml:space="preserve">C23991</t>
   </si>
   <si>
     <t xml:space="preserve">C24101</t>
   </si>
   <si>
+    <t xml:space="preserve">Fabricación de metales comunes</t>
+  </si>
+  <si>
     <t xml:space="preserve">C24201</t>
   </si>
   <si>
@@ -498,6 +918,9 @@
     <t xml:space="preserve">C25111</t>
   </si>
   <si>
+    <t xml:space="preserve">Fabricación de productos elaborados de metal, excepto maquinaria y equipo</t>
+  </si>
+  <si>
     <t xml:space="preserve">C25121</t>
   </si>
   <si>
@@ -507,6 +930,9 @@
     <t xml:space="preserve">C28191</t>
   </si>
   <si>
+    <t xml:space="preserve">Fabricación, reparación e instalación de maquinaria y equipo industrial, n.c.p.</t>
+  </si>
+  <si>
     <t xml:space="preserve">C28251</t>
   </si>
   <si>
@@ -525,9 +951,15 @@
     <t xml:space="preserve">C31001</t>
   </si>
   <si>
+    <t xml:space="preserve">Fabricación de muebles</t>
+  </si>
+  <si>
     <t xml:space="preserve">C32111</t>
   </si>
   <si>
+    <t xml:space="preserve">Otras industrias manufactureras</t>
+  </si>
+  <si>
     <t xml:space="preserve">C32121</t>
   </si>
   <si>
@@ -549,6 +981,9 @@
     <t xml:space="preserve">C1010</t>
   </si>
   <si>
+    <t xml:space="preserve">Elaboración y conservación de carne</t>
+  </si>
+  <si>
     <t xml:space="preserve">C1020</t>
   </si>
   <si>
@@ -564,6 +999,9 @@
     <t xml:space="preserve">C1061</t>
   </si>
   <si>
+    <t xml:space="preserve">Elaboración de productos de molinería</t>
+  </si>
+  <si>
     <t xml:space="preserve">C1062</t>
   </si>
   <si>
@@ -582,12 +1020,21 @@
     <t xml:space="preserve">C1075</t>
   </si>
   <si>
+    <t xml:space="preserve">Elaboración de comidas y platos preparados</t>
+  </si>
+  <si>
     <t xml:space="preserve">C1079</t>
   </si>
   <si>
+    <t xml:space="preserve">Elaboración de otros productos alimenticios n.c.p.</t>
+  </si>
+  <si>
     <t xml:space="preserve">C1080</t>
   </si>
   <si>
+    <t xml:space="preserve">Elaboración de piensos preparados para animales</t>
+  </si>
+  <si>
     <t xml:space="preserve">C1101</t>
   </si>
   <si>
@@ -600,81 +1047,154 @@
     <t xml:space="preserve">C1104</t>
   </si>
   <si>
+    <t xml:space="preserve">Elaboración de bebidas no alcohólicas; producción de aguas minerales
+y otras aguas embotelladas</t>
+  </si>
+  <si>
     <t xml:space="preserve">C1200</t>
   </si>
   <si>
     <t xml:space="preserve">C1311</t>
   </si>
   <si>
+    <t xml:space="preserve">Preparación e hilatura de fibras textiles</t>
+  </si>
+  <si>
     <t xml:space="preserve">C1312</t>
   </si>
   <si>
+    <t xml:space="preserve">Tejedura de productos textiles</t>
+  </si>
+  <si>
     <t xml:space="preserve">C1392</t>
   </si>
   <si>
+    <t xml:space="preserve">Fabricación de artículos confeccionados de materiales textiles, excepto prendas de vestir</t>
+  </si>
+  <si>
     <t xml:space="preserve">C1399</t>
   </si>
   <si>
     <t xml:space="preserve">C1410</t>
   </si>
   <si>
+    <t xml:space="preserve">Fabricación de prendas de vestir, excepto prendas de piel</t>
+  </si>
+  <si>
     <t xml:space="preserve">C1511</t>
   </si>
   <si>
+    <t xml:space="preserve">Curtido y adobo de cueros; adobo y teñido de pieles</t>
+  </si>
+  <si>
     <t xml:space="preserve">C1520</t>
   </si>
   <si>
+    <t xml:space="preserve">Fabricación de calzado</t>
+  </si>
+  <si>
     <t xml:space="preserve">C1610</t>
   </si>
   <si>
     <t xml:space="preserve">C1621</t>
   </si>
   <si>
+    <t xml:space="preserve">Fabricación de hojas de madera para enchapado y tableros a base de madera</t>
+  </si>
+  <si>
     <t xml:space="preserve">C1622</t>
   </si>
   <si>
+    <t xml:space="preserve">Fabricación de partes y piezas de carpintería para edificios y construcciones</t>
+  </si>
+  <si>
     <t xml:space="preserve">C1623</t>
   </si>
   <si>
+    <t xml:space="preserve">Fabricación de recipientes de madera</t>
+  </si>
+  <si>
     <t xml:space="preserve">C1629</t>
   </si>
   <si>
+    <t xml:space="preserve">Fabricación de otros productos de madera; fabricación de artículos de corcho, paja y materiales trenzables</t>
+  </si>
+  <si>
     <t xml:space="preserve">C1702</t>
   </si>
   <si>
+    <t xml:space="preserve">Fabricación de papel y cartón ondulado y de envases de papel y cartón</t>
+  </si>
+  <si>
     <t xml:space="preserve">C1709</t>
   </si>
   <si>
+    <t xml:space="preserve">Fabricación de otros artículos de papel y cartón</t>
+  </si>
+  <si>
     <t xml:space="preserve">C1811</t>
   </si>
   <si>
+    <t xml:space="preserve">Impresión</t>
+  </si>
+  <si>
     <t xml:space="preserve">C2011</t>
   </si>
   <si>
+    <t xml:space="preserve">Fabricación de sustancias químicas básicas</t>
+  </si>
+  <si>
     <t xml:space="preserve">C2012</t>
   </si>
   <si>
+    <t xml:space="preserve">Fabricación de abonos y compuestos de nitrógeno</t>
+  </si>
+  <si>
     <t xml:space="preserve">C2021</t>
   </si>
   <si>
+    <t xml:space="preserve">Fabricación de plaguicidas y otros productos químicos de uso agropecuario</t>
+  </si>
+  <si>
     <t xml:space="preserve">C2022</t>
   </si>
   <si>
+    <t xml:space="preserve">Fabricación de pinturas, barnices y productos de revestimiento similares,
+tintas de imprenta y masillas</t>
+  </si>
+  <si>
     <t xml:space="preserve">C2023</t>
   </si>
   <si>
+    <t xml:space="preserve">Fabricación de jabones y detergentes, preparados para limpiar y pulir,
+perfumes y preparados de tocador</t>
+  </si>
+  <si>
     <t xml:space="preserve">C2029</t>
   </si>
   <si>
+    <t xml:space="preserve">Fabricación de otros productos químicos n.c.p</t>
+  </si>
+  <si>
     <t xml:space="preserve">C2100</t>
   </si>
   <si>
+    <t xml:space="preserve">Fabricación de productos farmacéuticos, sustancias químicas medicinales
+y productos botánicos de uso farmacéutico</t>
+  </si>
+  <si>
     <t xml:space="preserve">C2211</t>
   </si>
   <si>
+    <t xml:space="preserve">Fabricación de cubiertas y cámaras de caucho; recauchutado y renovación de cubiertas de caucho</t>
+  </si>
+  <si>
     <t xml:space="preserve">C2219</t>
   </si>
   <si>
+    <t xml:space="preserve">Fabricación de otros productos de caucho</t>
+  </si>
+  <si>
     <t xml:space="preserve">C2220</t>
   </si>
   <si>
@@ -684,9 +1204,15 @@
     <t xml:space="preserve">C2392</t>
   </si>
   <si>
+    <t xml:space="preserve">Fabricación de materiales de construcción de arcilla</t>
+  </si>
+  <si>
     <t xml:space="preserve">C2393</t>
   </si>
   <si>
+    <t xml:space="preserve">Fabricación de otros productos de porcelana y de cerámica</t>
+  </si>
+  <si>
     <t xml:space="preserve">C2394</t>
   </si>
   <si>
@@ -696,66 +1222,126 @@
     <t xml:space="preserve">C2396</t>
   </si>
   <si>
+    <t xml:space="preserve">Corte, talla y acabado de la piedra</t>
+  </si>
+  <si>
     <t xml:space="preserve">C2399</t>
   </si>
   <si>
+    <t xml:space="preserve">Fabricación de otros productos minerales no metálicos n.c.p</t>
+  </si>
+  <si>
     <t xml:space="preserve">C2410</t>
   </si>
   <si>
+    <t xml:space="preserve">Industrias básicas de hierro y acero</t>
+  </si>
+  <si>
     <t xml:space="preserve">C2420</t>
   </si>
   <si>
+    <t xml:space="preserve">Fabricación de productos primarios de metales preciosos y otros metales no ferrosos</t>
+  </si>
+  <si>
     <t xml:space="preserve">C2431</t>
   </si>
   <si>
+    <t xml:space="preserve">Fundición de hierro y acero</t>
+  </si>
+  <si>
     <t xml:space="preserve">C2511</t>
   </si>
   <si>
+    <t xml:space="preserve">Fabricación de productos metálicos para uso estructural</t>
+  </si>
+  <si>
     <t xml:space="preserve">C2512</t>
   </si>
   <si>
+    <t xml:space="preserve">Fabricación de tanques, depósitos y recipientes de metal</t>
+  </si>
+  <si>
     <t xml:space="preserve">C2599</t>
   </si>
   <si>
+    <t xml:space="preserve">Fabricación de otros productos elaborados de metal n.c.p.</t>
+  </si>
+  <si>
     <t xml:space="preserve">C2819</t>
   </si>
   <si>
+    <t xml:space="preserve">Fabricación de otros tipos de maquinaria de uso general</t>
+  </si>
+  <si>
     <t xml:space="preserve">C2825</t>
   </si>
   <si>
+    <t xml:space="preserve">Fabricación de maquinaria para la elaboración de alimentos, bebidas y tabaco</t>
+  </si>
+  <si>
     <t xml:space="preserve">C2920</t>
   </si>
   <si>
+    <t xml:space="preserve">Fabricación de carrocerías para vehículos automotores; fabricación de remolques y semirremolques</t>
+  </si>
+  <si>
     <t xml:space="preserve">C2930</t>
   </si>
   <si>
+    <t xml:space="preserve">Fabricación de partes, piezas y accesorios para vehículos automotores</t>
+  </si>
+  <si>
     <t xml:space="preserve">C3020</t>
   </si>
   <si>
+    <t xml:space="preserve">Fabricación de locomotoras y material rodante</t>
+  </si>
+  <si>
     <t xml:space="preserve">C3091</t>
   </si>
   <si>
+    <t xml:space="preserve">Fabricación de motocicletas</t>
+  </si>
+  <si>
     <t xml:space="preserve">C3100</t>
   </si>
   <si>
     <t xml:space="preserve">C3211</t>
   </si>
   <si>
+    <t xml:space="preserve">Fabricación de joyas y artículos conexos</t>
+  </si>
+  <si>
     <t xml:space="preserve">C3212</t>
   </si>
   <si>
+    <t xml:space="preserve">Fabricación de bisutería y artículos conexos</t>
+  </si>
+  <si>
     <t xml:space="preserve">C3221</t>
   </si>
   <si>
+    <t xml:space="preserve">Fabricación de instrumentos de música</t>
+  </si>
+  <si>
     <t xml:space="preserve">C3230</t>
   </si>
   <si>
+    <t xml:space="preserve">Fabricación de artículos de deporte</t>
+  </si>
+  <si>
     <t xml:space="preserve">C3250</t>
   </si>
   <si>
+    <t xml:space="preserve">Fabricación de instrumentos y materiales médicos y odontológicos</t>
+  </si>
+  <si>
     <t xml:space="preserve">C3290</t>
   </si>
   <si>
+    <t xml:space="preserve">Otras industrias manufactureras n.c.p.</t>
+  </si>
+  <si>
     <t xml:space="preserve">GRUPO</t>
   </si>
   <si>
@@ -777,9 +1363,15 @@
     <t xml:space="preserve">C106</t>
   </si>
   <si>
+    <t xml:space="preserve">Elaboración de productos de molinería, almidones y productos derivados del almidón</t>
+  </si>
+  <si>
     <t xml:space="preserve">C107</t>
   </si>
   <si>
+    <t xml:space="preserve">Elaboración de otros productos alimenticios</t>
+  </si>
+  <si>
     <t xml:space="preserve">C108</t>
   </si>
   <si>
@@ -801,6 +1393,9 @@
     <t xml:space="preserve">C151</t>
   </si>
   <si>
+    <t xml:space="preserve">Curtido y adobo de cueros; fabricación de maletas, bolsos de mano y artículos de talabartería y guarnicionería; adobo y teñido de pieles</t>
+  </si>
+  <si>
     <t xml:space="preserve">C152</t>
   </si>
   <si>
@@ -810,18 +1405,34 @@
     <t xml:space="preserve">C162</t>
   </si>
   <si>
+    <t xml:space="preserve">Fabricación de productos de madera, corcho, paja y materiales trenzables</t>
+  </si>
+  <si>
     <t xml:space="preserve">C170</t>
   </si>
   <si>
+    <t xml:space="preserve">Fabricación de papel y de productos de papel</t>
+  </si>
+  <si>
     <t xml:space="preserve">C181</t>
   </si>
   <si>
+    <t xml:space="preserve">Impresión y actividades de servicios relacionadas con la impresión</t>
+  </si>
+  <si>
     <t xml:space="preserve">C201</t>
   </si>
   <si>
+    <t xml:space="preserve">Fabricación de sustancias químicas básicas, de abonos y compuestos
+de nitrógeno y de plásticos y caucho sintético en formas primarias</t>
+  </si>
+  <si>
     <t xml:space="preserve">C202</t>
   </si>
   <si>
+    <t xml:space="preserve">Fabricación de otros productos químicos</t>
+  </si>
+  <si>
     <t xml:space="preserve">C210</t>
   </si>
   <si>
@@ -837,6 +1448,9 @@
     <t xml:space="preserve">C239</t>
   </si>
   <si>
+    <t xml:space="preserve">Fabricación de productos minerales no metálicos n.c.p.</t>
+  </si>
+  <si>
     <t xml:space="preserve">C241</t>
   </si>
   <si>
@@ -846,18 +1460,33 @@
     <t xml:space="preserve">C243</t>
   </si>
   <si>
+    <t xml:space="preserve">Fundición de metales</t>
+  </si>
+  <si>
     <t xml:space="preserve">C251</t>
   </si>
   <si>
+    <t xml:space="preserve">Fabricación de productos metálicos para uso estructural, tanques, depósitos y recipientes de metal</t>
+  </si>
+  <si>
     <t xml:space="preserve">C259</t>
   </si>
   <si>
+    <t xml:space="preserve">Fabricación de otros productos elaborados de metal; actividades de servicios de trabajo de metales</t>
+  </si>
+  <si>
     <t xml:space="preserve">C281</t>
   </si>
   <si>
+    <t xml:space="preserve">Fabricación de maquinaria de uso general</t>
+  </si>
+  <si>
     <t xml:space="preserve">C282</t>
   </si>
   <si>
+    <t xml:space="preserve">Fabricación de maquinaria de uso especia</t>
+  </si>
+  <si>
     <t xml:space="preserve">C292</t>
   </si>
   <si>
@@ -870,12 +1499,18 @@
     <t xml:space="preserve">C309</t>
   </si>
   <si>
+    <t xml:space="preserve">Fabricación de equipo de transporte n.c.p.</t>
+  </si>
+  <si>
     <t xml:space="preserve">C310</t>
   </si>
   <si>
     <t xml:space="preserve">C321</t>
   </si>
   <si>
+    <t xml:space="preserve">Fabricación de joyas, bisutería y artículos conexos</t>
+  </si>
+  <si>
     <t xml:space="preserve">C322</t>
   </si>
   <si>
@@ -894,39 +1529,63 @@
     <t xml:space="preserve">C10</t>
   </si>
   <si>
+    <t xml:space="preserve">Elaboración de productos alimenticios</t>
+  </si>
+  <si>
     <t xml:space="preserve">C11</t>
   </si>
   <si>
+    <t xml:space="preserve">Elaboración de bebidas</t>
+  </si>
+  <si>
     <t xml:space="preserve">C12</t>
   </si>
   <si>
     <t xml:space="preserve">C13</t>
   </si>
   <si>
+    <t xml:space="preserve">Fabricación de productos textiles</t>
+  </si>
+  <si>
     <t xml:space="preserve">C14</t>
   </si>
   <si>
     <t xml:space="preserve">C15</t>
   </si>
   <si>
+    <t xml:space="preserve">Fabricación de productos de cuero y productos conexos</t>
+  </si>
+  <si>
     <t xml:space="preserve">C16</t>
   </si>
   <si>
+    <t xml:space="preserve">Producción de madera y fabricación de productos de madera y corcho, excepto muebles; fabricación de artículos de paja y de materiales trenzables</t>
+  </si>
+  <si>
     <t xml:space="preserve">C17</t>
   </si>
   <si>
     <t xml:space="preserve">C18</t>
   </si>
   <si>
+    <t xml:space="preserve">Impresión y reproducción de grabaciones</t>
+  </si>
+  <si>
     <t xml:space="preserve">C20</t>
   </si>
   <si>
+    <t xml:space="preserve">Fabricación de sustancias y productos químicos</t>
+  </si>
+  <si>
     <t xml:space="preserve">C21</t>
   </si>
   <si>
     <t xml:space="preserve">C22</t>
   </si>
   <si>
+    <t xml:space="preserve">Fabricación de productos de caucho y de plástico</t>
+  </si>
+  <si>
     <t xml:space="preserve">C23</t>
   </si>
   <si>
@@ -939,12 +1598,21 @@
     <t xml:space="preserve">C28</t>
   </si>
   <si>
+    <t xml:space="preserve">Fabricación de maquinaria y equipo n.c.p.</t>
+  </si>
+  <si>
     <t xml:space="preserve">C29</t>
   </si>
   <si>
+    <t xml:space="preserve">Fabricación de vehículos automotores, remolques y semirremolques</t>
+  </si>
+  <si>
     <t xml:space="preserve">C30</t>
   </si>
   <si>
+    <t xml:space="preserve">Fabricación de otro equipo de transporte</t>
+  </si>
+  <si>
     <t xml:space="preserve">C31</t>
   </si>
   <si>
@@ -955,6 +1623,9 @@
   </si>
   <si>
     <t xml:space="preserve">C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Industria de Manufactura</t>
   </si>
   <si>
     <t xml:space="preserve">VARIEDAD</t>
@@ -1455,741 +2126,1299 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="n">
         <v>99.3507297760509</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.36777258685455</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="n">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="n">
         <v>100</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.070034237869248</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="n">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="n">
         <v>97.1438826016823</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.577498164676996</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="n">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="n">
         <v>100</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.39491106575329</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="n">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="n">
         <v>89.364299954298</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.960398827924499</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="n">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="n">
         <v>107.152974707063</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.326263197697565</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="n">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="n">
         <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.329187298784627</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="n">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="n">
         <v>101.438402663247</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.628984873141732</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="n">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="n">
         <v>101.177111269294</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.106966496112087</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="n">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="n">
         <v>100.230662927579</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.549145615450291</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="n">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="n">
         <v>99.9060229694024</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.482655204513613</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="n">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="n">
         <v>102.728424240133</v>
+      </c>
+      <c r="D13" t="n">
+        <v>3.20171280131453</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="n">
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="n">
         <v>97.7291866699629</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.239999629396922</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="n">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" t="n">
         <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.907201136745214</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="n">
+        <v>32</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" t="n">
         <v>99.255769888028</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.456655499540234</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="n">
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" t="n">
         <v>99.4609681476822</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1.11391787564256</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" t="n">
+        <v>36</v>
+      </c>
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" t="n">
         <v>96.6784487508314</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.731641307646356</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" t="n">
+        <v>38</v>
+      </c>
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" t="n">
         <v>101.607859674913</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.256040531545418</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" t="n">
+        <v>40</v>
+      </c>
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" t="n">
         <v>99.5519214739418</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.750636730510915</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" t="n">
+        <v>42</v>
+      </c>
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" t="n">
         <v>100</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.181537966057431</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" t="n">
+        <v>44</v>
+      </c>
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" t="n">
         <v>99.9836685384505</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.109557602361919</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="n">
+        <v>46</v>
+      </c>
+      <c r="B23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" t="n">
         <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>2.38908680271584</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="n">
+        <v>48</v>
+      </c>
+      <c r="B24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" t="n">
         <v>99.0529861100067</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.722648921402228</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" t="n">
+        <v>50</v>
+      </c>
+      <c r="B25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" t="n">
         <v>99.4830318136267</v>
+      </c>
+      <c r="D25" t="n">
+        <v>2.31417113918117</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" t="n">
+        <v>52</v>
+      </c>
+      <c r="B26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" t="n">
         <v>99.7484261876988</v>
+      </c>
+      <c r="D26" t="n">
+        <v>2.65408875345219</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" t="n">
+        <v>54</v>
+      </c>
+      <c r="B27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" t="n">
         <v>101.286436485572</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.679962212502279</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" t="n">
+        <v>56</v>
+      </c>
+      <c r="B28" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" t="n">
         <v>100</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.268294236280618</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" t="n">
+        <v>58</v>
+      </c>
+      <c r="B29" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" t="n">
         <v>100.987035757821</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.229538136292805</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" t="n">
+        <v>60</v>
+      </c>
+      <c r="B30" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" t="n">
         <v>101.109886043934</v>
+      </c>
+      <c r="D30" t="n">
+        <v>3.56459581811847</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" t="n">
+        <v>62</v>
+      </c>
+      <c r="B31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" t="n">
         <v>98.8616371977998</v>
+      </c>
+      <c r="D31" t="n">
+        <v>2.87339000147229</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" t="n">
+        <v>64</v>
+      </c>
+      <c r="B32" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" t="n">
         <v>99.9320362658069</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.309062256997545</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" t="n">
+        <v>66</v>
+      </c>
+      <c r="B33" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" t="n">
         <v>100</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.051548059360999</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34" t="n">
+        <v>68</v>
+      </c>
+      <c r="B34" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" t="n">
         <v>100.000640022529</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.764600729195854</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35" t="n">
+        <v>70</v>
+      </c>
+      <c r="B35" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" t="n">
         <v>99.8787833150092</v>
+      </c>
+      <c r="D35" t="n">
+        <v>3.33681859570151</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36" t="n">
+        <v>72</v>
+      </c>
+      <c r="B36" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" t="n">
         <v>99.8845522048369</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.524598350053553</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37" t="n">
+        <v>74</v>
+      </c>
+      <c r="B37" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" t="n">
         <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.186706556541633</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38" t="n">
+        <v>76</v>
+      </c>
+      <c r="B38" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" t="n">
         <v>100</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.384638570911784</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>39</v>
-      </c>
-      <c r="B39" t="n">
+        <v>78</v>
+      </c>
+      <c r="B39" t="s">
+        <v>79</v>
+      </c>
+      <c r="C39" t="n">
         <v>100.469732146621</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.864055881175967</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40" t="n">
+        <v>80</v>
+      </c>
+      <c r="B40" t="s">
+        <v>81</v>
+      </c>
+      <c r="C40" t="n">
         <v>100.759155256272</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.724566264723001</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>41</v>
-      </c>
-      <c r="B41" t="n">
+        <v>82</v>
+      </c>
+      <c r="B41" t="s">
+        <v>83</v>
+      </c>
+      <c r="C41" t="n">
         <v>99.9094016240496</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.153087595731072</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42" t="n">
+        <v>84</v>
+      </c>
+      <c r="B42" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42" t="n">
         <v>96.5091974324007</v>
+      </c>
+      <c r="D42" t="n">
+        <v>3.72042418761232</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>43</v>
-      </c>
-      <c r="B43" t="n">
+        <v>86</v>
+      </c>
+      <c r="B43" t="s">
+        <v>87</v>
+      </c>
+      <c r="C43" t="n">
         <v>100</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.21953659644555</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>44</v>
-      </c>
-      <c r="B44" t="n">
+        <v>88</v>
+      </c>
+      <c r="B44" t="s">
+        <v>89</v>
+      </c>
+      <c r="C44" t="n">
         <v>100.620658621597</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.853787860838277</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>45</v>
-      </c>
-      <c r="B45" t="n">
+        <v>90</v>
+      </c>
+      <c r="B45" t="s">
+        <v>91</v>
+      </c>
+      <c r="C45" t="n">
         <v>102.793860222238</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.894951721977578</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>46</v>
-      </c>
-      <c r="B46" t="n">
+        <v>92</v>
+      </c>
+      <c r="B46" t="s">
+        <v>93</v>
+      </c>
+      <c r="C46" t="n">
         <v>100</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.0202525466365719</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>47</v>
-      </c>
-      <c r="B47" t="n">
+        <v>94</v>
+      </c>
+      <c r="B47" t="s">
+        <v>95</v>
+      </c>
+      <c r="C47" t="n">
         <v>90.5830666889842</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.259209086868908</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>48</v>
-      </c>
-      <c r="B48" t="n">
+        <v>96</v>
+      </c>
+      <c r="B48" t="s">
+        <v>97</v>
+      </c>
+      <c r="C48" t="n">
         <v>99.4243273229975</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.264757620343263</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>49</v>
-      </c>
-      <c r="B49" t="n">
+        <v>98</v>
+      </c>
+      <c r="B49" t="s">
+        <v>99</v>
+      </c>
+      <c r="C49" t="n">
         <v>100</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.174913489621221</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>50</v>
-      </c>
-      <c r="B50" t="n">
+        <v>100</v>
+      </c>
+      <c r="B50" t="s">
+        <v>101</v>
+      </c>
+      <c r="C50" t="n">
         <v>110.2020267781</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.0587861827844532</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>51</v>
-      </c>
-      <c r="B51" t="n">
+        <v>102</v>
+      </c>
+      <c r="B51" t="s">
+        <v>103</v>
+      </c>
+      <c r="C51" t="n">
         <v>99.9573287590702</v>
+      </c>
+      <c r="D51" t="n">
+        <v>1.26401767556372</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>52</v>
-      </c>
-      <c r="B52" t="n">
+        <v>104</v>
+      </c>
+      <c r="B52" t="s">
+        <v>105</v>
+      </c>
+      <c r="C52" t="n">
         <v>99.9860014288873</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.131882095917025</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>53</v>
-      </c>
-      <c r="B53" t="n">
+        <v>106</v>
+      </c>
+      <c r="B53" t="s">
+        <v>107</v>
+      </c>
+      <c r="C53" t="n">
         <v>100.303646956723</v>
+      </c>
+      <c r="D53" t="n">
+        <v>2.73125404180515</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>54</v>
-      </c>
-      <c r="B54" t="n">
+        <v>108</v>
+      </c>
+      <c r="B54" t="s">
+        <v>109</v>
+      </c>
+      <c r="C54" t="n">
         <v>104.228369119078</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.450826104793016</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>55</v>
-      </c>
-      <c r="B55" t="n">
+        <v>110</v>
+      </c>
+      <c r="B55" t="s">
+        <v>111</v>
+      </c>
+      <c r="C55" t="n">
         <v>100</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.384040898628251</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>56</v>
-      </c>
-      <c r="B56" t="n">
+        <v>112</v>
+      </c>
+      <c r="B56" t="s">
+        <v>113</v>
+      </c>
+      <c r="C56" t="n">
         <v>99.3906533979855</v>
+      </c>
+      <c r="D56" t="n">
+        <v>1.58469996044575</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>57</v>
-      </c>
-      <c r="B57" t="n">
+        <v>114</v>
+      </c>
+      <c r="B57" t="s">
+        <v>115</v>
+      </c>
+      <c r="C57" t="n">
         <v>97.8247735661627</v>
+      </c>
+      <c r="D57" t="n">
+        <v>2.43347806600498</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>58</v>
-      </c>
-      <c r="B58" t="n">
+        <v>116</v>
+      </c>
+      <c r="B58" t="s">
+        <v>117</v>
+      </c>
+      <c r="C58" t="n">
         <v>96.1508775395364</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.379204299297</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>59</v>
-      </c>
-      <c r="B59" t="n">
+        <v>118</v>
+      </c>
+      <c r="B59" t="s">
+        <v>119</v>
+      </c>
+      <c r="C59" t="n">
         <v>99.2452276667225</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.691757574008516</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>60</v>
-      </c>
-      <c r="B60" t="n">
+        <v>120</v>
+      </c>
+      <c r="B60" t="s">
+        <v>121</v>
+      </c>
+      <c r="C60" t="n">
         <v>99.9857552842882</v>
+      </c>
+      <c r="D60" t="n">
+        <v>2.47558774559676</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>61</v>
-      </c>
-      <c r="B61" t="n">
+        <v>122</v>
+      </c>
+      <c r="B61" t="s">
+        <v>123</v>
+      </c>
+      <c r="C61" t="n">
         <v>102.986399364392</v>
+      </c>
+      <c r="D61" t="n">
+        <v>1.4360590602553</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>62</v>
-      </c>
-      <c r="B62" t="n">
+        <v>124</v>
+      </c>
+      <c r="B62" t="s">
+        <v>125</v>
+      </c>
+      <c r="C62" t="n">
         <v>106.422290164872</v>
+      </c>
+      <c r="D62" t="n">
+        <v>3.22767911930381</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>63</v>
-      </c>
-      <c r="B63" t="n">
+        <v>126</v>
+      </c>
+      <c r="B63" t="s">
+        <v>127</v>
+      </c>
+      <c r="C63" t="n">
         <v>101.924716258736</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.152866007258786</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>64</v>
-      </c>
-      <c r="B64" t="n">
+        <v>128</v>
+      </c>
+      <c r="B64" t="s">
+        <v>129</v>
+      </c>
+      <c r="C64" t="n">
         <v>0</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.726189428492877</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>65</v>
-      </c>
-      <c r="B65" t="n">
+        <v>130</v>
+      </c>
+      <c r="B65" t="s">
+        <v>131</v>
+      </c>
+      <c r="C65" t="n">
         <v>99.9395018045946</v>
+      </c>
+      <c r="D65" t="n">
+        <v>4.67614790441578</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>66</v>
-      </c>
-      <c r="B66" t="n">
+        <v>132</v>
+      </c>
+      <c r="B66" t="s">
+        <v>133</v>
+      </c>
+      <c r="C66" t="n">
         <v>98.8360648514294</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.074121114925974</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>67</v>
-      </c>
-      <c r="B67" t="n">
+        <v>134</v>
+      </c>
+      <c r="B67" t="s">
+        <v>135</v>
+      </c>
+      <c r="C67" t="n">
         <v>100.095299499298</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.509328642674851</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>68</v>
-      </c>
-      <c r="B68" t="n">
+        <v>136</v>
+      </c>
+      <c r="B68" t="s">
+        <v>137</v>
+      </c>
+      <c r="C68" t="n">
         <v>100</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.136665026899553</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>69</v>
-      </c>
-      <c r="B69" t="n">
+        <v>138</v>
+      </c>
+      <c r="B69" t="s">
+        <v>139</v>
+      </c>
+      <c r="C69" t="n">
         <v>104.816909631973</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0.685388890279056</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>70</v>
-      </c>
-      <c r="B70" t="n">
+        <v>140</v>
+      </c>
+      <c r="B70" t="s">
+        <v>141</v>
+      </c>
+      <c r="C70" t="n">
         <v>100</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0.0648890941537358</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>71</v>
-      </c>
-      <c r="B71" t="n">
+        <v>142</v>
+      </c>
+      <c r="B71" t="s">
+        <v>143</v>
+      </c>
+      <c r="C71" t="n">
         <v>100</v>
+      </c>
+      <c r="D71" t="n">
+        <v>2.18976131329872</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>72</v>
-      </c>
-      <c r="B72" t="n">
+        <v>144</v>
+      </c>
+      <c r="B72" t="s">
+        <v>145</v>
+      </c>
+      <c r="C72" t="n">
         <v>98.9483388909244</v>
+      </c>
+      <c r="D72" t="n">
+        <v>1.0162478276322</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>73</v>
-      </c>
-      <c r="B73" t="n">
+        <v>146</v>
+      </c>
+      <c r="B73" t="s">
+        <v>147</v>
+      </c>
+      <c r="C73" t="n">
         <v>100</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0.0318005685352066</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>74</v>
-      </c>
-      <c r="B74" t="n">
+        <v>148</v>
+      </c>
+      <c r="B74" t="s">
+        <v>149</v>
+      </c>
+      <c r="C74" t="n">
         <v>99.9998948351436</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0.191526725190851</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>75</v>
-      </c>
-      <c r="B75" t="n">
+        <v>150</v>
+      </c>
+      <c r="B75" t="s">
+        <v>151</v>
+      </c>
+      <c r="C75" t="n">
         <v>96.7276772800486</v>
+      </c>
+      <c r="D75" t="n">
+        <v>6.45117355080922</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>76</v>
-      </c>
-      <c r="B76" t="n">
+        <v>152</v>
+      </c>
+      <c r="B76" t="s">
+        <v>153</v>
+      </c>
+      <c r="C76" t="n">
         <v>100</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0.187038746694366</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>77</v>
-      </c>
-      <c r="B77" t="n">
+        <v>154</v>
+      </c>
+      <c r="B77" t="s">
+        <v>155</v>
+      </c>
+      <c r="C77" t="n">
         <v>100</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0.214919020049417</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>78</v>
-      </c>
-      <c r="B78" t="n">
+        <v>156</v>
+      </c>
+      <c r="B78" t="s">
+        <v>157</v>
+      </c>
+      <c r="C78" t="n">
         <v>97.625</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0.651798405259911</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>79</v>
-      </c>
-      <c r="B79" t="n">
+        <v>158</v>
+      </c>
+      <c r="B79" t="s">
+        <v>159</v>
+      </c>
+      <c r="C79" t="n">
         <v>100</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0.159855840604306</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>80</v>
-      </c>
-      <c r="B80" t="n">
+        <v>160</v>
+      </c>
+      <c r="B80" t="s">
+        <v>161</v>
+      </c>
+      <c r="C80" t="n">
         <v>100.370676807966</v>
+      </c>
+      <c r="D80" t="n">
+        <v>1.99800221349396</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>81</v>
-      </c>
-      <c r="B81" t="n">
+        <v>162</v>
+      </c>
+      <c r="B81" t="s">
+        <v>163</v>
+      </c>
+      <c r="C81" t="n">
         <v>100</v>
+      </c>
+      <c r="D81" t="n">
+        <v>1.77705355671819</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>82</v>
-      </c>
-      <c r="B82" t="n">
+        <v>164</v>
+      </c>
+      <c r="B82" t="s">
+        <v>165</v>
+      </c>
+      <c r="C82" t="n">
         <v>100</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0.499411129194166</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>83</v>
-      </c>
-      <c r="B83" t="n">
+        <v>166</v>
+      </c>
+      <c r="B83" t="s">
+        <v>167</v>
+      </c>
+      <c r="C83" t="n">
         <v>100</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0.487254188696169</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>84</v>
-      </c>
-      <c r="B84" t="n">
+        <v>168</v>
+      </c>
+      <c r="B84" t="s">
+        <v>169</v>
+      </c>
+      <c r="C84" t="n">
         <v>96.4024370086228</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0.6822724137232</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>85</v>
-      </c>
-      <c r="B85" t="n">
+        <v>170</v>
+      </c>
+      <c r="B85" t="s">
+        <v>171</v>
+      </c>
+      <c r="C85" t="n">
         <v>100</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0.624443082078958</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>86</v>
-      </c>
-      <c r="B86" t="n">
+        <v>172</v>
+      </c>
+      <c r="B86" t="s">
+        <v>173</v>
+      </c>
+      <c r="C86" t="n">
         <v>100.005190473711</v>
+      </c>
+      <c r="D86" t="n">
+        <v>2.48880742537088</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>87</v>
-      </c>
-      <c r="B87" t="n">
+        <v>174</v>
+      </c>
+      <c r="B87" t="s">
+        <v>175</v>
+      </c>
+      <c r="C87" t="n">
         <v>101.882021258751</v>
+      </c>
+      <c r="D87" t="n">
+        <v>2.29756047778635</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>88</v>
-      </c>
-      <c r="B88" t="n">
+        <v>176</v>
+      </c>
+      <c r="B88" t="s">
+        <v>177</v>
+      </c>
+      <c r="C88" t="n">
         <v>99.9999999999997</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0.111576342703959</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>89</v>
-      </c>
-      <c r="B89" t="n">
+        <v>178</v>
+      </c>
+      <c r="B89" t="s">
+        <v>179</v>
+      </c>
+      <c r="C89" t="n">
         <v>100</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0.231504124416427</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>90</v>
-      </c>
-      <c r="B90" t="n">
+        <v>180</v>
+      </c>
+      <c r="B90" t="s">
+        <v>181</v>
+      </c>
+      <c r="C90" t="n">
         <v>100</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0.0405379818122482</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>91</v>
-      </c>
-      <c r="B91" t="n">
+        <v>182</v>
+      </c>
+      <c r="B91" t="s">
+        <v>183</v>
+      </c>
+      <c r="C91" t="n">
         <v>99.3626689700167</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0.0922825525448037</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>92</v>
-      </c>
-      <c r="B92" t="n">
+        <v>184</v>
+      </c>
+      <c r="B92" t="s">
+        <v>185</v>
+      </c>
+      <c r="C92" t="n">
         <v>100</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0.695985202977849</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>93</v>
-      </c>
-      <c r="B93" t="n">
+        <v>186</v>
+      </c>
+      <c r="B93" t="s">
+        <v>187</v>
+      </c>
+      <c r="C93" t="n">
         <v>100.023708585691</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0.827188868273618</v>
       </c>
     </row>
   </sheetData>
@@ -2208,1093 +3437,1327 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>94</v>
+        <v>188</v>
       </c>
       <c r="B1" t="s">
-        <v>95</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>96</v>
+        <v>189</v>
       </c>
       <c r="D1" t="s">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B2" t="n">
+        <v>190</v>
+      </c>
+      <c r="B2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C2" t="n">
         <v>242.243358234652</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>2.4378068247238</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>99.3693822569794</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B3" t="n">
+        <v>192</v>
+      </c>
+      <c r="B3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C3" t="n">
         <v>56.1004139120691</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>0.577498164676996</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>97.1438826016823</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>99</v>
-      </c>
-      <c r="B4" t="n">
+        <v>194</v>
+      </c>
+      <c r="B4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C4" t="n">
         <v>339.491106575329</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>3.39491106575329</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>100</v>
-      </c>
-      <c r="B5" t="n">
+        <v>196</v>
+      </c>
+      <c r="B5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C5" t="n">
         <v>85.8253689344012</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>0.960398827924499</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>89.364299954298</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>101</v>
-      </c>
-      <c r="B6" t="n">
+        <v>198</v>
+      </c>
+      <c r="B6" t="s">
+        <v>199</v>
+      </c>
+      <c r="C6" t="n">
         <v>34.9600721707327</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>0.655450496482192</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>53.3374714922998</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>102</v>
-      </c>
-      <c r="B7" t="n">
+        <v>200</v>
+      </c>
+      <c r="B7" t="s">
+        <v>201</v>
+      </c>
+      <c r="C7" t="n">
         <v>177.887172938856</v>
       </c>
-      <c r="C7" t="n">
+      <c r="D7" t="n">
         <v>1.76775218921772</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>100.629021434037</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>103</v>
-      </c>
-      <c r="B8" t="n">
+        <v>202</v>
+      </c>
+      <c r="B8" t="s">
+        <v>203</v>
+      </c>
+      <c r="C8" t="n">
         <v>352.361879530556</v>
       </c>
-      <c r="C8" t="n">
+      <c r="D8" t="n">
         <v>4.34891356745667</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>81.022966785846</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>104</v>
-      </c>
-      <c r="B9" t="n">
+        <v>204</v>
+      </c>
+      <c r="B9" t="s">
+        <v>205</v>
+      </c>
+      <c r="C9" t="n">
         <v>156.117043528886</v>
       </c>
-      <c r="C9" t="n">
+      <c r="D9" t="n">
         <v>1.57057337518279</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>99.4013052785365</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>105</v>
-      </c>
-      <c r="B10" t="n">
+        <v>206</v>
+      </c>
+      <c r="B10" t="s">
+        <v>207</v>
+      </c>
+      <c r="C10" t="n">
         <v>70.7339466652795</v>
       </c>
-      <c r="C10" t="n">
+      <c r="D10" t="n">
         <v>0.731641307646356</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>96.6784487508314</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>106</v>
-      </c>
-      <c r="B11" t="n">
+        <v>208</v>
+      </c>
+      <c r="B11" t="s">
+        <v>209</v>
+      </c>
+      <c r="C11" t="n">
         <v>26.015730400357</v>
       </c>
-      <c r="C11" t="n">
+      <c r="D11" t="n">
         <v>0.256040531545418</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
         <v>101.607859674913</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>107</v>
-      </c>
-      <c r="B12" t="n">
+        <v>210</v>
+      </c>
+      <c r="B12" t="s">
+        <v>211</v>
+      </c>
+      <c r="C12" t="n">
         <v>92.8811254570221</v>
       </c>
-      <c r="C12" t="n">
+      <c r="D12" t="n">
         <v>0.932174696568346</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
         <v>99.6391832978832</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>108</v>
-      </c>
-      <c r="B13" t="n">
+        <v>212</v>
+      </c>
+      <c r="B13" t="s">
+        <v>213</v>
+      </c>
+      <c r="C13" t="n">
         <v>10.9539710004215</v>
       </c>
-      <c r="C13" t="n">
+      <c r="D13" t="n">
         <v>0.109557602361919</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>99.9836685384505</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>109</v>
-      </c>
-      <c r="B14" t="n">
+        <v>214</v>
+      </c>
+      <c r="B14" t="s">
+        <v>215</v>
+      </c>
+      <c r="C14" t="n">
         <v>71.5805335740662</v>
       </c>
-      <c r="C14" t="n">
+      <c r="D14" t="n">
         <v>3.11173572411807</v>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
         <v>23.0034102893984</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>110</v>
-      </c>
-      <c r="B15" t="n">
+        <v>216</v>
+      </c>
+      <c r="B15" t="s">
+        <v>217</v>
+      </c>
+      <c r="C15" t="n">
         <v>230.220761061337</v>
       </c>
-      <c r="C15" t="n">
+      <c r="D15" t="n">
         <v>2.31417113918117</v>
       </c>
-      <c r="D15" t="n">
+      <c r="E15" t="n">
         <v>99.4830318136267</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>111</v>
-      </c>
-      <c r="B16" t="n">
+        <v>218</v>
+      </c>
+      <c r="B16" t="s">
+        <v>219</v>
+      </c>
+      <c r="C16" t="n">
         <v>264.741176119327</v>
       </c>
-      <c r="C16" t="n">
+      <c r="D16" t="n">
         <v>2.65408875345219</v>
       </c>
-      <c r="D16" t="n">
+      <c r="E16" t="n">
         <v>99.7484261876988</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>112</v>
-      </c>
-      <c r="B17" t="n">
+        <v>220</v>
+      </c>
+      <c r="B17" t="s">
+        <v>221</v>
+      </c>
+      <c r="C17" t="n">
         <v>68.8709494492011</v>
       </c>
-      <c r="C17" t="n">
+      <c r="D17" t="n">
         <v>0.679962212502279</v>
       </c>
-      <c r="D17" t="n">
+      <c r="E17" t="n">
         <v>101.286436485572</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>113</v>
-      </c>
-      <c r="B18" t="n">
+        <v>222</v>
+      </c>
+      <c r="B18" t="s">
+        <v>223</v>
+      </c>
+      <c r="C18" t="n">
         <v>26.8294236280618</v>
       </c>
-      <c r="C18" t="n">
+      <c r="D18" t="n">
         <v>0.268294236280618</v>
       </c>
-      <c r="D18" t="n">
+      <c r="E18" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>114</v>
-      </c>
-      <c r="B19" t="n">
+        <v>224</v>
+      </c>
+      <c r="B19" t="s">
+        <v>225</v>
+      </c>
+      <c r="C19" t="n">
         <v>23.180375977585</v>
       </c>
-      <c r="C19" t="n">
+      <c r="D19" t="n">
         <v>0.229538136292805</v>
       </c>
-      <c r="D19" t="n">
+      <c r="E19" t="n">
         <v>100.987035757821</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>115</v>
-      </c>
-      <c r="B20" t="n">
+        <v>226</v>
+      </c>
+      <c r="B20" t="s">
+        <v>225</v>
+      </c>
+      <c r="C20" t="n">
         <v>360.415876962642</v>
       </c>
-      <c r="C20" t="n">
+      <c r="D20" t="n">
         <v>3.56459581811847</v>
       </c>
-      <c r="D20" t="n">
+      <c r="E20" t="n">
         <v>101.109886043934</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>116</v>
-      </c>
-      <c r="B21" t="n">
+        <v>227</v>
+      </c>
+      <c r="B21" t="s">
+        <v>228</v>
+      </c>
+      <c r="C21" t="n">
         <v>284.068039853339</v>
       </c>
-      <c r="C21" t="n">
+      <c r="D21" t="n">
         <v>2.87339000147229</v>
       </c>
-      <c r="D21" t="n">
+      <c r="E21" t="n">
         <v>98.8616371977998</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>117</v>
-      </c>
-      <c r="B22" t="n">
+        <v>229</v>
+      </c>
+      <c r="B22" t="s">
+        <v>230</v>
+      </c>
+      <c r="C22" t="n">
         <v>30.8852206746708</v>
       </c>
-      <c r="C22" t="n">
+      <c r="D22" t="n">
         <v>0.309062256997545</v>
       </c>
-      <c r="D22" t="n">
+      <c r="E22" t="n">
         <v>99.9320362658069</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>118</v>
-      </c>
-      <c r="B23" t="n">
+        <v>231</v>
+      </c>
+      <c r="B23" t="s">
+        <v>232</v>
+      </c>
+      <c r="C23" t="n">
         <v>5.1548059360999</v>
       </c>
-      <c r="C23" t="n">
+      <c r="D23" t="n">
         <v>0.051548059360999</v>
       </c>
-      <c r="D23" t="n">
+      <c r="E23" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>119</v>
-      </c>
-      <c r="B24" t="n">
+        <v>233</v>
+      </c>
+      <c r="B24" t="s">
+        <v>234</v>
+      </c>
+      <c r="C24" t="n">
         <v>76.4605622812777</v>
       </c>
-      <c r="C24" t="n">
+      <c r="D24" t="n">
         <v>0.764600729195854</v>
       </c>
-      <c r="D24" t="n">
+      <c r="E24" t="n">
         <v>100.000640022529</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>120</v>
-      </c>
-      <c r="B25" t="n">
+        <v>235</v>
+      </c>
+      <c r="B25" t="s">
+        <v>236</v>
+      </c>
+      <c r="C25" t="n">
         <v>385.67665276406</v>
       </c>
-      <c r="C25" t="n">
+      <c r="D25" t="n">
         <v>3.86141694575506</v>
       </c>
-      <c r="D25" t="n">
+      <c r="E25" t="n">
         <v>99.8795670558297</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>121</v>
-      </c>
-      <c r="B26" t="n">
+        <v>237</v>
+      </c>
+      <c r="B26" t="s">
+        <v>238</v>
+      </c>
+      <c r="C26" t="n">
         <v>0</v>
       </c>
-      <c r="C26" t="n">
+      <c r="D26" t="n">
         <v>0.186706556541633</v>
       </c>
-      <c r="D26" t="n">
+      <c r="E26" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>122</v>
-      </c>
-      <c r="B27" t="n">
+        <v>239</v>
+      </c>
+      <c r="B27" t="s">
+        <v>240</v>
+      </c>
+      <c r="C27" t="n">
         <v>38.4638570911784</v>
       </c>
-      <c r="C27" t="n">
+      <c r="D27" t="n">
         <v>0.384638570911784</v>
       </c>
-      <c r="D27" t="n">
+      <c r="E27" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>123</v>
-      </c>
-      <c r="B28" t="n">
+        <v>241</v>
+      </c>
+      <c r="B28" t="s">
+        <v>240</v>
+      </c>
+      <c r="C28" t="n">
         <v>86.8114629414617</v>
       </c>
-      <c r="C28" t="n">
+      <c r="D28" t="n">
         <v>0.864055881175967</v>
       </c>
-      <c r="D28" t="n">
+      <c r="E28" t="n">
         <v>100.469732146621</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>124</v>
-      </c>
-      <c r="B29" t="n">
+        <v>242</v>
+      </c>
+      <c r="B29" t="s">
+        <v>243</v>
+      </c>
+      <c r="C29" t="n">
         <v>73.0066847606816</v>
       </c>
-      <c r="C29" t="n">
+      <c r="D29" t="n">
         <v>0.724566264723001</v>
       </c>
-      <c r="D29" t="n">
+      <c r="E29" t="n">
         <v>100.759155256272</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>125</v>
-      </c>
-      <c r="B30" t="n">
+        <v>244</v>
+      </c>
+      <c r="B30" t="s">
+        <v>243</v>
+      </c>
+      <c r="C30" t="n">
         <v>15.2948900855558</v>
       </c>
-      <c r="C30" t="n">
+      <c r="D30" t="n">
         <v>0.153087595731072</v>
       </c>
-      <c r="D30" t="n">
+      <c r="E30" t="n">
         <v>99.9094016240496</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>126</v>
-      </c>
-      <c r="B31" t="n">
+        <v>245</v>
+      </c>
+      <c r="B31" t="s">
+        <v>246</v>
+      </c>
+      <c r="C31" t="n">
         <v>359.055152454556</v>
       </c>
-      <c r="C31" t="n">
+      <c r="D31" t="n">
         <v>3.72042418761232</v>
       </c>
-      <c r="D31" t="n">
+      <c r="E31" t="n">
         <v>96.5091974324007</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>127</v>
-      </c>
-      <c r="B32" t="n">
+        <v>247</v>
+      </c>
+      <c r="B32" t="s">
+        <v>248</v>
+      </c>
+      <c r="C32" t="n">
         <v>21.953659644555</v>
       </c>
-      <c r="C32" t="n">
+      <c r="D32" t="n">
         <v>0.21953659644555</v>
       </c>
-      <c r="D32" t="n">
+      <c r="E32" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>128</v>
-      </c>
-      <c r="B33" t="n">
+        <v>249</v>
+      </c>
+      <c r="B33" t="s">
+        <v>250</v>
+      </c>
+      <c r="C33" t="n">
         <v>85.9086968806719</v>
       </c>
-      <c r="C33" t="n">
+      <c r="D33" t="n">
         <v>0.853787860838277</v>
       </c>
-      <c r="D33" t="n">
+      <c r="E33" t="n">
         <v>100.620658621597</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>129</v>
-      </c>
-      <c r="B34" t="n">
+        <v>251</v>
+      </c>
+      <c r="B34" t="s">
+        <v>252</v>
+      </c>
+      <c r="C34" t="n">
         <v>94.0207968782715</v>
       </c>
-      <c r="C34" t="n">
+      <c r="D34" t="n">
         <v>0.91520426861415</v>
       </c>
-      <c r="D34" t="n">
+      <c r="E34" t="n">
         <v>102.732034915705</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>130</v>
-      </c>
-      <c r="B35" t="n">
+        <v>253</v>
+      </c>
+      <c r="B35" t="s">
+        <v>254</v>
+      </c>
+      <c r="C35" t="n">
         <v>23.479954002237</v>
       </c>
-      <c r="C35" t="n">
+      <c r="D35" t="n">
         <v>0.259209086868908</v>
       </c>
-      <c r="D35" t="n">
+      <c r="E35" t="n">
         <v>90.5830666889842</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>131</v>
-      </c>
-      <c r="B36" t="n">
+        <v>255</v>
+      </c>
+      <c r="B36" t="s">
+        <v>254</v>
+      </c>
+      <c r="C36" t="n">
         <v>26.3233483062665</v>
       </c>
-      <c r="C36" t="n">
+      <c r="D36" t="n">
         <v>0.264757620343263</v>
       </c>
-      <c r="D36" t="n">
+      <c r="E36" t="n">
         <v>99.4243273229975</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>132</v>
-      </c>
-      <c r="B37" t="n">
+        <v>256</v>
+      </c>
+      <c r="B37" t="s">
+        <v>254</v>
+      </c>
+      <c r="C37" t="n">
         <v>17.4913489621221</v>
       </c>
-      <c r="C37" t="n">
+      <c r="D37" t="n">
         <v>0.174913489621221</v>
       </c>
-      <c r="D37" t="n">
+      <c r="E37" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>133</v>
-      </c>
-      <c r="B38" t="n">
+        <v>257</v>
+      </c>
+      <c r="B38" t="s">
+        <v>254</v>
+      </c>
+      <c r="C38" t="n">
         <v>6.47835648939461</v>
       </c>
-      <c r="C38" t="n">
+      <c r="D38" t="n">
         <v>0.0587861827844532</v>
       </c>
-      <c r="D38" t="n">
+      <c r="E38" t="n">
         <v>110.2020267781</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>134</v>
-      </c>
-      <c r="B39" t="n">
+        <v>258</v>
+      </c>
+      <c r="B39" t="s">
+        <v>259</v>
+      </c>
+      <c r="C39" t="n">
         <v>139.534193784403</v>
       </c>
-      <c r="C39" t="n">
+      <c r="D39" t="n">
         <v>1.39589977148075</v>
       </c>
-      <c r="D39" t="n">
+      <c r="E39" t="n">
         <v>99.9600377012653</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>135</v>
-      </c>
-      <c r="B40" t="n">
+        <v>260</v>
+      </c>
+      <c r="B40" t="s">
+        <v>259</v>
+      </c>
+      <c r="C40" t="n">
         <v>273.954741158346</v>
       </c>
-      <c r="C40" t="n">
+      <c r="D40" t="n">
         <v>2.73125404180515</v>
       </c>
-      <c r="D40" t="n">
+      <c r="E40" t="n">
         <v>100.303646956723</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>136</v>
-      </c>
-      <c r="B41" t="n">
+        <v>261</v>
+      </c>
+      <c r="B41" t="s">
+        <v>262</v>
+      </c>
+      <c r="C41" t="n">
         <v>46.9888696588825</v>
       </c>
-      <c r="C41" t="n">
+      <c r="D41" t="n">
         <v>0.450826104793016</v>
       </c>
-      <c r="D41" t="n">
+      <c r="E41" t="n">
         <v>104.228369119078</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>137</v>
-      </c>
-      <c r="B42" t="n">
+        <v>263</v>
+      </c>
+      <c r="B42" t="s">
+        <v>264</v>
+      </c>
+      <c r="C42" t="n">
         <v>38.4040898628251</v>
       </c>
-      <c r="C42" t="n">
+      <c r="D42" t="n">
         <v>0.384040898628251</v>
       </c>
-      <c r="D42" t="n">
+      <c r="E42" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>138</v>
-      </c>
-      <c r="B43" t="n">
+        <v>265</v>
+      </c>
+      <c r="B43" t="s">
+        <v>266</v>
+      </c>
+      <c r="C43" t="n">
         <v>157.504364508465</v>
       </c>
-      <c r="C43" t="n">
+      <c r="D43" t="n">
         <v>1.58469996044575</v>
       </c>
-      <c r="D43" t="n">
+      <c r="E43" t="n">
         <v>99.3906533979855</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>139</v>
-      </c>
-      <c r="B44" t="n">
+        <v>267</v>
+      </c>
+      <c r="B44" t="s">
+        <v>268</v>
+      </c>
+      <c r="C44" t="n">
         <v>238.054440785161</v>
       </c>
-      <c r="C44" t="n">
+      <c r="D44" t="n">
         <v>2.43347806600498</v>
       </c>
-      <c r="D44" t="n">
+      <c r="E44" t="n">
         <v>97.8247735661627</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>140</v>
-      </c>
-      <c r="B45" t="n">
+        <v>269</v>
+      </c>
+      <c r="B45" t="s">
+        <v>268</v>
+      </c>
+      <c r="C45" t="n">
         <v>36.4608261441716</v>
       </c>
-      <c r="C45" t="n">
+      <c r="D45" t="n">
         <v>0.379204299297</v>
       </c>
-      <c r="D45" t="n">
+      <c r="E45" t="n">
         <v>96.1508775395364</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>141</v>
-      </c>
-      <c r="B46" t="n">
+        <v>270</v>
+      </c>
+      <c r="B46" t="s">
+        <v>271</v>
+      </c>
+      <c r="C46" t="n">
         <v>68.6536379226548</v>
       </c>
-      <c r="C46" t="n">
+      <c r="D46" t="n">
         <v>0.691757574008516</v>
       </c>
-      <c r="D46" t="n">
+      <c r="E46" t="n">
         <v>99.2452276667225</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>142</v>
-      </c>
-      <c r="B47" t="n">
+        <v>272</v>
+      </c>
+      <c r="B47" t="s">
+        <v>273</v>
+      </c>
+      <c r="C47" t="n">
         <v>247.52351051602</v>
       </c>
-      <c r="C47" t="n">
+      <c r="D47" t="n">
         <v>2.47558774559676</v>
       </c>
-      <c r="D47" t="n">
+      <c r="E47" t="n">
         <v>99.9857552842882</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>143</v>
-      </c>
-      <c r="B48" t="n">
+        <v>274</v>
+      </c>
+      <c r="B48" t="s">
+        <v>266</v>
+      </c>
+      <c r="C48" t="n">
         <v>147.894551890305</v>
       </c>
-      <c r="C48" t="n">
+      <c r="D48" t="n">
         <v>1.4360590602553</v>
       </c>
-      <c r="D48" t="n">
+      <c r="E48" t="n">
         <v>102.986399364391</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>144</v>
-      </c>
-      <c r="B49" t="n">
+        <v>275</v>
+      </c>
+      <c r="B49" t="s">
+        <v>276</v>
+      </c>
+      <c r="C49" t="n">
         <v>343.497003793647</v>
       </c>
-      <c r="C49" t="n">
+      <c r="D49" t="n">
         <v>3.22767911930381</v>
       </c>
-      <c r="D49" t="n">
+      <c r="E49" t="n">
         <v>106.422290164872</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>145</v>
-      </c>
-      <c r="B50" t="n">
+        <v>277</v>
+      </c>
+      <c r="B50" t="s">
+        <v>278</v>
+      </c>
+      <c r="C50" t="n">
         <v>15.5808244154577</v>
       </c>
-      <c r="C50" t="n">
+      <c r="D50" t="n">
         <v>0.152866007258786</v>
       </c>
-      <c r="D50" t="n">
+      <c r="E50" t="n">
         <v>101.924716258736</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>146</v>
-      </c>
-      <c r="B51" t="n">
+        <v>279</v>
+      </c>
+      <c r="B51" t="s">
+        <v>278</v>
+      </c>
+      <c r="C51" t="n">
         <v>0</v>
       </c>
-      <c r="C51" t="n">
+      <c r="D51" t="n">
         <v>0.726189428492877</v>
       </c>
-      <c r="D51" t="n">
+      <c r="E51" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>147</v>
-      </c>
-      <c r="B52" t="n">
+        <v>280</v>
+      </c>
+      <c r="B52" t="s">
+        <v>281</v>
+      </c>
+      <c r="C52" t="n">
         <v>474.657731253596</v>
       </c>
-      <c r="C52" t="n">
+      <c r="D52" t="n">
         <v>4.75026901934175</v>
       </c>
-      <c r="D52" t="n">
+      <c r="E52" t="n">
         <v>99.9222842582017</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>148</v>
-      </c>
-      <c r="B53" t="n">
+        <v>282</v>
+      </c>
+      <c r="B53" t="s">
+        <v>283</v>
+      </c>
+      <c r="C53" t="n">
         <v>50.9814030321104</v>
       </c>
-      <c r="C53" t="n">
+      <c r="D53" t="n">
         <v>0.509328642674851</v>
       </c>
-      <c r="D53" t="n">
+      <c r="E53" t="n">
         <v>100.095299499298</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>149</v>
-      </c>
-      <c r="B54" t="n">
+        <v>284</v>
+      </c>
+      <c r="B54" t="s">
+        <v>285</v>
+      </c>
+      <c r="C54" t="n">
         <v>85.5068480650932</v>
       </c>
-      <c r="C54" t="n">
+      <c r="D54" t="n">
         <v>0.822053917178609</v>
       </c>
-      <c r="D54" t="n">
+      <c r="E54" t="n">
         <v>104.016106824919</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>150</v>
-      </c>
-      <c r="B55" t="n">
+        <v>286</v>
+      </c>
+      <c r="B55" t="s">
+        <v>285</v>
+      </c>
+      <c r="C55" t="n">
         <v>6.48890941537358</v>
       </c>
-      <c r="C55" t="n">
+      <c r="D55" t="n">
         <v>0.0648890941537358</v>
       </c>
-      <c r="D55" t="n">
+      <c r="E55" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>151</v>
-      </c>
-      <c r="B56" t="n">
+        <v>287</v>
+      </c>
+      <c r="B56" t="s">
+        <v>288</v>
+      </c>
+      <c r="C56" t="n">
         <v>218.976131329872</v>
       </c>
-      <c r="C56" t="n">
+      <c r="D56" t="n">
         <v>2.18976131329872</v>
       </c>
-      <c r="D56" t="n">
+      <c r="E56" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>152</v>
-      </c>
-      <c r="B57" t="n">
+        <v>289</v>
+      </c>
+      <c r="B57" t="s">
+        <v>290</v>
+      </c>
+      <c r="C57" t="n">
         <v>100.556034445717</v>
       </c>
-      <c r="C57" t="n">
+      <c r="D57" t="n">
         <v>1.0162478276322</v>
       </c>
-      <c r="D57" t="n">
+      <c r="E57" t="n">
         <v>98.9483388909244</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>153</v>
-      </c>
-      <c r="B58" t="n">
+        <v>291</v>
+      </c>
+      <c r="B58" t="s">
+        <v>292</v>
+      </c>
+      <c r="C58" t="n">
         <v>3.18005685352066</v>
       </c>
-      <c r="C58" t="n">
+      <c r="D58" t="n">
         <v>0.0318005685352066</v>
       </c>
-      <c r="D58" t="n">
+      <c r="E58" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>154</v>
-      </c>
-      <c r="B59" t="n">
+        <v>293</v>
+      </c>
+      <c r="B59" t="s">
+        <v>292</v>
+      </c>
+      <c r="C59" t="n">
         <v>19.1526523772046</v>
       </c>
-      <c r="C59" t="n">
+      <c r="D59" t="n">
         <v>0.191526725190851</v>
       </c>
-      <c r="D59" t="n">
+      <c r="E59" t="n">
         <v>99.9998948351436</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>155</v>
-      </c>
-      <c r="B60" t="n">
+        <v>294</v>
+      </c>
+      <c r="B60" t="s">
+        <v>295</v>
+      </c>
+      <c r="C60" t="n">
         <v>624.00703330026</v>
       </c>
-      <c r="C60" t="n">
+      <c r="D60" t="n">
         <v>6.45117355080922</v>
       </c>
-      <c r="D60" t="n">
+      <c r="E60" t="n">
         <v>96.7276772800487</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>156</v>
-      </c>
-      <c r="B61" t="n">
+        <v>296</v>
+      </c>
+      <c r="B61" t="s">
+        <v>295</v>
+      </c>
+      <c r="C61" t="n">
         <v>18.7038746694366</v>
       </c>
-      <c r="C61" t="n">
+      <c r="D61" t="n">
         <v>0.187038746694366</v>
       </c>
-      <c r="D61" t="n">
+      <c r="E61" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>157</v>
-      </c>
-      <c r="B62" t="n">
+        <v>297</v>
+      </c>
+      <c r="B62" t="s">
+        <v>295</v>
+      </c>
+      <c r="C62" t="n">
         <v>21.4919020049417</v>
       </c>
-      <c r="C62" t="n">
+      <c r="D62" t="n">
         <v>0.214919020049417</v>
       </c>
-      <c r="D62" t="n">
+      <c r="E62" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>158</v>
-      </c>
-      <c r="B63" t="n">
+        <v>298</v>
+      </c>
+      <c r="B63" t="s">
+        <v>299</v>
+      </c>
+      <c r="C63" t="n">
         <v>63.6318193134988</v>
       </c>
-      <c r="C63" t="n">
+      <c r="D63" t="n">
         <v>0.651798405259911</v>
       </c>
-      <c r="D63" t="n">
+      <c r="E63" t="n">
         <v>97.625</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>159</v>
-      </c>
-      <c r="B64" t="n">
+        <v>300</v>
+      </c>
+      <c r="B64" t="s">
+        <v>299</v>
+      </c>
+      <c r="C64" t="n">
         <v>15.9855840604306</v>
       </c>
-      <c r="C64" t="n">
+      <c r="D64" t="n">
         <v>0.159855840604306</v>
       </c>
-      <c r="D64" t="n">
+      <c r="E64" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>160</v>
-      </c>
-      <c r="B65" t="n">
+        <v>301</v>
+      </c>
+      <c r="B65" t="s">
+        <v>299</v>
+      </c>
+      <c r="C65" t="n">
         <v>200.540834432204</v>
       </c>
-      <c r="C65" t="n">
+      <c r="D65" t="n">
         <v>1.99800221349396</v>
       </c>
-      <c r="D65" t="n">
+      <c r="E65" t="n">
         <v>100.370676807966</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>161</v>
-      </c>
-      <c r="B66" t="n">
+        <v>302</v>
+      </c>
+      <c r="B66" t="s">
+        <v>303</v>
+      </c>
+      <c r="C66" t="n">
         <v>177.705355671819</v>
       </c>
-      <c r="C66" t="n">
+      <c r="D66" t="n">
         <v>1.77705355671819</v>
       </c>
-      <c r="D66" t="n">
+      <c r="E66" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>162</v>
-      </c>
-      <c r="B67" t="n">
+        <v>304</v>
+      </c>
+      <c r="B67" t="s">
+        <v>303</v>
+      </c>
+      <c r="C67" t="n">
         <v>49.9411129194166</v>
       </c>
-      <c r="C67" t="n">
+      <c r="D67" t="n">
         <v>0.499411129194166</v>
       </c>
-      <c r="D67" t="n">
+      <c r="E67" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>163</v>
-      </c>
-      <c r="B68" t="n">
+        <v>305</v>
+      </c>
+      <c r="B68" t="s">
+        <v>303</v>
+      </c>
+      <c r="C68" t="n">
         <v>48.7254188696169</v>
       </c>
-      <c r="C68" t="n">
+      <c r="D68" t="n">
         <v>0.487254188696169</v>
       </c>
-      <c r="D68" t="n">
+      <c r="E68" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>164</v>
-      </c>
-      <c r="B69" t="n">
+        <v>306</v>
+      </c>
+      <c r="B69" t="s">
+        <v>303</v>
+      </c>
+      <c r="C69" t="n">
         <v>65.7727233866718</v>
       </c>
-      <c r="C69" t="n">
+      <c r="D69" t="n">
         <v>0.6822724137232</v>
       </c>
-      <c r="D69" t="n">
+      <c r="E69" t="n">
         <v>96.4024370086228</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>165</v>
-      </c>
-      <c r="B70" t="n">
+        <v>307</v>
+      </c>
+      <c r="B70" t="s">
+        <v>303</v>
+      </c>
+      <c r="C70" t="n">
         <v>62.4443082078958</v>
       </c>
-      <c r="C70" t="n">
+      <c r="D70" t="n">
         <v>0.624443082078958</v>
       </c>
-      <c r="D70" t="n">
+      <c r="E70" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>166</v>
-      </c>
-      <c r="B71" t="n">
+        <v>308</v>
+      </c>
+      <c r="B71" t="s">
+        <v>303</v>
+      </c>
+      <c r="C71" t="n">
         <v>248.893660626601</v>
       </c>
-      <c r="C71" t="n">
+      <c r="D71" t="n">
         <v>2.48880742537088</v>
       </c>
-      <c r="D71" t="n">
+      <c r="E71" t="n">
         <v>100.005190473711</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>167</v>
-      </c>
-      <c r="B72" t="n">
+        <v>309</v>
+      </c>
+      <c r="B72" t="s">
+        <v>310</v>
+      </c>
+      <c r="C72" t="n">
         <v>234.080105441094</v>
       </c>
-      <c r="C72" t="n">
+      <c r="D72" t="n">
         <v>2.29756047778635</v>
       </c>
-      <c r="D72" t="n">
+      <c r="E72" t="n">
         <v>101.882021258751</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>168</v>
-      </c>
-      <c r="B73" t="n">
+        <v>311</v>
+      </c>
+      <c r="B73" t="s">
+        <v>312</v>
+      </c>
+      <c r="C73" t="n">
         <v>11.1576342703959</v>
       </c>
-      <c r="C73" t="n">
+      <c r="D73" t="n">
         <v>0.111576342703959</v>
       </c>
-      <c r="D73" t="n">
+      <c r="E73" t="n">
         <v>99.9999999999997</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>169</v>
-      </c>
-      <c r="B74" t="n">
+        <v>313</v>
+      </c>
+      <c r="B74" t="s">
+        <v>312</v>
+      </c>
+      <c r="C74" t="n">
         <v>23.1504124416427</v>
       </c>
-      <c r="C74" t="n">
+      <c r="D74" t="n">
         <v>0.231504124416427</v>
       </c>
-      <c r="D74" t="n">
+      <c r="E74" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>170</v>
-      </c>
-      <c r="B75" t="n">
+        <v>314</v>
+      </c>
+      <c r="B75" t="s">
+        <v>312</v>
+      </c>
+      <c r="C75" t="n">
         <v>4.05379818122482</v>
       </c>
-      <c r="C75" t="n">
+      <c r="D75" t="n">
         <v>0.0405379818122482</v>
       </c>
-      <c r="D75" t="n">
+      <c r="E75" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>171</v>
-      </c>
-      <c r="B76" t="n">
+        <v>315</v>
+      </c>
+      <c r="B76" t="s">
+        <v>312</v>
+      </c>
+      <c r="C76" t="n">
         <v>9.1694407202175</v>
       </c>
-      <c r="C76" t="n">
+      <c r="D76" t="n">
         <v>0.0922825525448037</v>
       </c>
-      <c r="D76" t="n">
+      <c r="E76" t="n">
         <v>99.3626689700167</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>172</v>
-      </c>
-      <c r="B77" t="n">
+        <v>316</v>
+      </c>
+      <c r="B77" t="s">
+        <v>312</v>
+      </c>
+      <c r="C77" t="n">
         <v>69.5985202977849</v>
       </c>
-      <c r="C77" t="n">
+      <c r="D77" t="n">
         <v>0.695985202977849</v>
       </c>
-      <c r="D77" t="n">
+      <c r="E77" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>173</v>
-      </c>
-      <c r="B78" t="n">
+        <v>317</v>
+      </c>
+      <c r="B78" t="s">
+        <v>312</v>
+      </c>
+      <c r="C78" t="n">
         <v>82.7384983055281</v>
       </c>
-      <c r="C78" t="n">
+      <c r="D78" t="n">
         <v>0.827188868273618</v>
       </c>
-      <c r="D78" t="n">
+      <c r="E78" t="n">
         <v>100.023708585691</v>
       </c>
     </row>
@@ -3314,995 +4777,1208 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>174</v>
+        <v>318</v>
       </c>
       <c r="B1" t="s">
-        <v>95</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>96</v>
+        <v>189</v>
       </c>
       <c r="D1" t="s">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>175</v>
-      </c>
-      <c r="B2" t="n">
+        <v>319</v>
+      </c>
+      <c r="B2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C2" t="n">
         <v>723.660247656451</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>7.37061488307858</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>98.1818015370504</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>176</v>
-      </c>
-      <c r="B3" t="n">
+        <v>321</v>
+      </c>
+      <c r="B3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C3" t="n">
         <v>34.9600721707327</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>0.655450496482192</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>53.3374714922998</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>177</v>
-      </c>
-      <c r="B4" t="n">
+        <v>322</v>
+      </c>
+      <c r="B4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C4" t="n">
         <v>177.887172938856</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>1.76775218921772</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>100.629021434037</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>178</v>
-      </c>
-      <c r="B5" t="n">
+        <v>323</v>
+      </c>
+      <c r="B5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C5" t="n">
         <v>352.361879530556</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>4.34891356745667</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>81.022966785846</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>179</v>
-      </c>
-      <c r="B6" t="n">
+        <v>324</v>
+      </c>
+      <c r="B6" t="s">
+        <v>205</v>
+      </c>
+      <c r="C6" t="n">
         <v>156.117043528886</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>1.57057337518279</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>99.4013052785365</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>180</v>
-      </c>
-      <c r="B7" t="n">
+        <v>325</v>
+      </c>
+      <c r="B7" t="s">
+        <v>326</v>
+      </c>
+      <c r="C7" t="n">
         <v>189.630802522659</v>
       </c>
-      <c r="C7" t="n">
+      <c r="D7" t="n">
         <v>1.91985653576012</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>98.7734234254014</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>181</v>
-      </c>
-      <c r="B8" t="n">
+        <v>327</v>
+      </c>
+      <c r="B8" t="s">
+        <v>213</v>
+      </c>
+      <c r="C8" t="n">
         <v>10.9539710004215</v>
       </c>
-      <c r="C8" t="n">
+      <c r="D8" t="n">
         <v>0.109557602361919</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>99.9836685384505</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>182</v>
-      </c>
-      <c r="B9" t="n">
+        <v>328</v>
+      </c>
+      <c r="B9" t="s">
+        <v>215</v>
+      </c>
+      <c r="C9" t="n">
         <v>301.801294635403</v>
       </c>
-      <c r="C9" t="n">
+      <c r="D9" t="n">
         <v>5.42590686329924</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>55.6222770200468</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>183</v>
-      </c>
-      <c r="B10" t="n">
+        <v>329</v>
+      </c>
+      <c r="B10" t="s">
+        <v>219</v>
+      </c>
+      <c r="C10" t="n">
         <v>264.741176119327</v>
       </c>
-      <c r="C10" t="n">
+      <c r="D10" t="n">
         <v>2.65408875345219</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>99.7484261876988</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>184</v>
-      </c>
-      <c r="B11" t="n">
+        <v>330</v>
+      </c>
+      <c r="B11" t="s">
+        <v>221</v>
+      </c>
+      <c r="C11" t="n">
         <v>68.8709494492011</v>
       </c>
-      <c r="C11" t="n">
+      <c r="D11" t="n">
         <v>0.679962212502279</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
         <v>101.286436485572</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>185</v>
-      </c>
-      <c r="B12" t="n">
+        <v>331</v>
+      </c>
+      <c r="B12" t="s">
+        <v>223</v>
+      </c>
+      <c r="C12" t="n">
         <v>26.8294236280618</v>
       </c>
-      <c r="C12" t="n">
+      <c r="D12" t="n">
         <v>0.268294236280618</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>186</v>
-      </c>
-      <c r="B13" t="n">
+        <v>332</v>
+      </c>
+      <c r="B13" t="s">
+        <v>333</v>
+      </c>
+      <c r="C13" t="n">
         <v>23.180375977585</v>
       </c>
-      <c r="C13" t="n">
+      <c r="D13" t="n">
         <v>0.229538136292805</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>100.987035757821</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>187</v>
-      </c>
-      <c r="B14" t="n">
+        <v>334</v>
+      </c>
+      <c r="B14" t="s">
+        <v>335</v>
+      </c>
+      <c r="C14" t="n">
         <v>360.415876962642</v>
       </c>
-      <c r="C14" t="n">
+      <c r="D14" t="n">
         <v>3.56459581811847</v>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
         <v>101.109886043934</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>188</v>
-      </c>
-      <c r="B15" t="n">
+        <v>336</v>
+      </c>
+      <c r="B15" t="s">
+        <v>337</v>
+      </c>
+      <c r="C15" t="n">
         <v>284.068039853339</v>
       </c>
-      <c r="C15" t="n">
+      <c r="D15" t="n">
         <v>2.87339000147229</v>
       </c>
-      <c r="D15" t="n">
+      <c r="E15" t="n">
         <v>98.8616371977998</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>189</v>
-      </c>
-      <c r="B16" t="n">
+        <v>338</v>
+      </c>
+      <c r="B16" t="s">
+        <v>230</v>
+      </c>
+      <c r="C16" t="n">
         <v>30.8852206746708</v>
       </c>
-      <c r="C16" t="n">
+      <c r="D16" t="n">
         <v>0.309062256997545</v>
       </c>
-      <c r="D16" t="n">
+      <c r="E16" t="n">
         <v>99.9320362658069</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>190</v>
-      </c>
-      <c r="B17" t="n">
+        <v>339</v>
+      </c>
+      <c r="B17" t="s">
+        <v>232</v>
+      </c>
+      <c r="C17" t="n">
         <v>5.1548059360999</v>
       </c>
-      <c r="C17" t="n">
+      <c r="D17" t="n">
         <v>0.051548059360999</v>
       </c>
-      <c r="D17" t="n">
+      <c r="E17" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>191</v>
-      </c>
-      <c r="B18" t="n">
+        <v>340</v>
+      </c>
+      <c r="B18" t="s">
+        <v>234</v>
+      </c>
+      <c r="C18" t="n">
         <v>76.4605622812777</v>
       </c>
-      <c r="C18" t="n">
+      <c r="D18" t="n">
         <v>0.764600729195854</v>
       </c>
-      <c r="D18" t="n">
+      <c r="E18" t="n">
         <v>100.000640022529</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>192</v>
-      </c>
-      <c r="B19" t="n">
+        <v>341</v>
+      </c>
+      <c r="B19" t="s">
+        <v>342</v>
+      </c>
+      <c r="C19" t="n">
         <v>385.67665276406</v>
       </c>
-      <c r="C19" t="n">
+      <c r="D19" t="n">
         <v>3.86141694575506</v>
       </c>
-      <c r="D19" t="n">
+      <c r="E19" t="n">
         <v>99.8795670558297</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>193</v>
-      </c>
-      <c r="B20" t="n">
+        <v>343</v>
+      </c>
+      <c r="B20" t="s">
+        <v>238</v>
+      </c>
+      <c r="C20" t="n">
         <v>0</v>
       </c>
-      <c r="C20" t="n">
+      <c r="D20" t="n">
         <v>0.186706556541633</v>
       </c>
-      <c r="D20" t="n">
+      <c r="E20" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>194</v>
-      </c>
-      <c r="B21" t="n">
+        <v>344</v>
+      </c>
+      <c r="B21" t="s">
+        <v>345</v>
+      </c>
+      <c r="C21" t="n">
         <v>38.4638570911784</v>
       </c>
-      <c r="C21" t="n">
+      <c r="D21" t="n">
         <v>0.384638570911784</v>
       </c>
-      <c r="D21" t="n">
+      <c r="E21" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>195</v>
-      </c>
-      <c r="B22" t="n">
+        <v>346</v>
+      </c>
+      <c r="B22" t="s">
+        <v>347</v>
+      </c>
+      <c r="C22" t="n">
         <v>86.8114629414617</v>
       </c>
-      <c r="C22" t="n">
+      <c r="D22" t="n">
         <v>0.864055881175967</v>
       </c>
-      <c r="D22" t="n">
+      <c r="E22" t="n">
         <v>100.469732146621</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>196</v>
-      </c>
-      <c r="B23" t="n">
+        <v>348</v>
+      </c>
+      <c r="B23" t="s">
+        <v>349</v>
+      </c>
+      <c r="C23" t="n">
         <v>73.0066847606816</v>
       </c>
-      <c r="C23" t="n">
+      <c r="D23" t="n">
         <v>0.724566264723001</v>
       </c>
-      <c r="D23" t="n">
+      <c r="E23" t="n">
         <v>100.759155256272</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>197</v>
-      </c>
-      <c r="B24" t="n">
+        <v>350</v>
+      </c>
+      <c r="B24" t="s">
+        <v>243</v>
+      </c>
+      <c r="C24" t="n">
         <v>15.2948900855558</v>
       </c>
-      <c r="C24" t="n">
+      <c r="D24" t="n">
         <v>0.153087595731072</v>
       </c>
-      <c r="D24" t="n">
+      <c r="E24" t="n">
         <v>99.9094016240496</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>198</v>
-      </c>
-      <c r="B25" t="n">
+        <v>351</v>
+      </c>
+      <c r="B25" t="s">
+        <v>352</v>
+      </c>
+      <c r="C25" t="n">
         <v>359.055152454556</v>
       </c>
-      <c r="C25" t="n">
+      <c r="D25" t="n">
         <v>3.72042418761232</v>
       </c>
-      <c r="D25" t="n">
+      <c r="E25" t="n">
         <v>96.5091974324007</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>199</v>
-      </c>
-      <c r="B26" t="n">
+        <v>353</v>
+      </c>
+      <c r="B26" t="s">
+        <v>354</v>
+      </c>
+      <c r="C26" t="n">
         <v>21.953659644555</v>
       </c>
-      <c r="C26" t="n">
+      <c r="D26" t="n">
         <v>0.21953659644555</v>
       </c>
-      <c r="D26" t="n">
+      <c r="E26" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>200</v>
-      </c>
-      <c r="B27" t="n">
+        <v>355</v>
+      </c>
+      <c r="B27" t="s">
+        <v>356</v>
+      </c>
+      <c r="C27" t="n">
         <v>85.9086968806719</v>
       </c>
-      <c r="C27" t="n">
+      <c r="D27" t="n">
         <v>0.853787860838277</v>
       </c>
-      <c r="D27" t="n">
+      <c r="E27" t="n">
         <v>100.620658621597</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>201</v>
-      </c>
-      <c r="B28" t="n">
+        <v>357</v>
+      </c>
+      <c r="B28" t="s">
+        <v>252</v>
+      </c>
+      <c r="C28" t="n">
         <v>94.0207968782715</v>
       </c>
-      <c r="C28" t="n">
+      <c r="D28" t="n">
         <v>0.91520426861415</v>
       </c>
-      <c r="D28" t="n">
+      <c r="E28" t="n">
         <v>102.732034915705</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>202</v>
-      </c>
-      <c r="B29" t="n">
+        <v>358</v>
+      </c>
+      <c r="B29" t="s">
+        <v>359</v>
+      </c>
+      <c r="C29" t="n">
         <v>23.479954002237</v>
       </c>
-      <c r="C29" t="n">
+      <c r="D29" t="n">
         <v>0.259209086868908</v>
       </c>
-      <c r="D29" t="n">
+      <c r="E29" t="n">
         <v>90.5830666889842</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>203</v>
-      </c>
-      <c r="B30" t="n">
+        <v>360</v>
+      </c>
+      <c r="B30" t="s">
+        <v>361</v>
+      </c>
+      <c r="C30" t="n">
         <v>26.3233483062665</v>
       </c>
-      <c r="C30" t="n">
+      <c r="D30" t="n">
         <v>0.264757620343263</v>
       </c>
-      <c r="D30" t="n">
+      <c r="E30" t="n">
         <v>99.4243273229975</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>204</v>
-      </c>
-      <c r="B31" t="n">
+        <v>362</v>
+      </c>
+      <c r="B31" t="s">
+        <v>363</v>
+      </c>
+      <c r="C31" t="n">
         <v>17.4913489621221</v>
       </c>
-      <c r="C31" t="n">
+      <c r="D31" t="n">
         <v>0.174913489621221</v>
       </c>
-      <c r="D31" t="n">
+      <c r="E31" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>205</v>
-      </c>
-      <c r="B32" t="n">
+        <v>364</v>
+      </c>
+      <c r="B32" t="s">
+        <v>365</v>
+      </c>
+      <c r="C32" t="n">
         <v>6.47835648939461</v>
       </c>
-      <c r="C32" t="n">
+      <c r="D32" t="n">
         <v>0.0587861827844532</v>
       </c>
-      <c r="D32" t="n">
+      <c r="E32" t="n">
         <v>110.2020267781</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>206</v>
-      </c>
-      <c r="B33" t="n">
+        <v>366</v>
+      </c>
+      <c r="B33" t="s">
+        <v>367</v>
+      </c>
+      <c r="C33" t="n">
         <v>139.534193784403</v>
       </c>
-      <c r="C33" t="n">
+      <c r="D33" t="n">
         <v>1.39589977148075</v>
       </c>
-      <c r="D33" t="n">
+      <c r="E33" t="n">
         <v>99.9600377012653</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>207</v>
-      </c>
-      <c r="B34" t="n">
+        <v>368</v>
+      </c>
+      <c r="B34" t="s">
+        <v>369</v>
+      </c>
+      <c r="C34" t="n">
         <v>273.954741158346</v>
       </c>
-      <c r="C34" t="n">
+      <c r="D34" t="n">
         <v>2.73125404180515</v>
       </c>
-      <c r="D34" t="n">
+      <c r="E34" t="n">
         <v>100.303646956723</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>208</v>
-      </c>
-      <c r="B35" t="n">
+        <v>370</v>
+      </c>
+      <c r="B35" t="s">
+        <v>371</v>
+      </c>
+      <c r="C35" t="n">
         <v>46.9888696588825</v>
       </c>
-      <c r="C35" t="n">
+      <c r="D35" t="n">
         <v>0.450826104793016</v>
       </c>
-      <c r="D35" t="n">
+      <c r="E35" t="n">
         <v>104.228369119078</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>209</v>
-      </c>
-      <c r="B36" t="n">
+        <v>372</v>
+      </c>
+      <c r="B36" t="s">
+        <v>373</v>
+      </c>
+      <c r="C36" t="n">
         <v>195.90845437129</v>
       </c>
-      <c r="C36" t="n">
+      <c r="D36" t="n">
         <v>1.968740859074</v>
       </c>
-      <c r="D36" t="n">
+      <c r="E36" t="n">
         <v>99.509518212283</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>210</v>
-      </c>
-      <c r="B37" t="n">
+        <v>374</v>
+      </c>
+      <c r="B37" t="s">
+        <v>375</v>
+      </c>
+      <c r="C37" t="n">
         <v>238.054440785161</v>
       </c>
-      <c r="C37" t="n">
+      <c r="D37" t="n">
         <v>2.43347806600498</v>
       </c>
-      <c r="D37" t="n">
+      <c r="E37" t="n">
         <v>97.8247735661627</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>211</v>
-      </c>
-      <c r="B38" t="n">
+        <v>376</v>
+      </c>
+      <c r="B38" t="s">
+        <v>377</v>
+      </c>
+      <c r="C38" t="n">
         <v>36.4608261441716</v>
       </c>
-      <c r="C38" t="n">
+      <c r="D38" t="n">
         <v>0.379204299297</v>
       </c>
-      <c r="D38" t="n">
+      <c r="E38" t="n">
         <v>96.1508775395364</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>212</v>
-      </c>
-      <c r="B39" t="n">
+        <v>378</v>
+      </c>
+      <c r="B39" t="s">
+        <v>379</v>
+      </c>
+      <c r="C39" t="n">
         <v>68.6536379226548</v>
       </c>
-      <c r="C39" t="n">
+      <c r="D39" t="n">
         <v>0.691757574008516</v>
       </c>
-      <c r="D39" t="n">
+      <c r="E39" t="n">
         <v>99.2452276667225</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>213</v>
-      </c>
-      <c r="B40" t="n">
+        <v>380</v>
+      </c>
+      <c r="B40" t="s">
+        <v>381</v>
+      </c>
+      <c r="C40" t="n">
         <v>247.52351051602</v>
       </c>
-      <c r="C40" t="n">
+      <c r="D40" t="n">
         <v>2.47558774559676</v>
       </c>
-      <c r="D40" t="n">
+      <c r="E40" t="n">
         <v>99.9857552842882</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>214</v>
-      </c>
-      <c r="B41" t="n">
+        <v>382</v>
+      </c>
+      <c r="B41" t="s">
+        <v>383</v>
+      </c>
+      <c r="C41" t="n">
         <v>147.894551890305</v>
       </c>
-      <c r="C41" t="n">
+      <c r="D41" t="n">
         <v>1.4360590602553</v>
       </c>
-      <c r="D41" t="n">
+      <c r="E41" t="n">
         <v>102.986399364391</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>215</v>
-      </c>
-      <c r="B42" t="n">
+        <v>384</v>
+      </c>
+      <c r="B42" t="s">
+        <v>385</v>
+      </c>
+      <c r="C42" t="n">
         <v>343.497003793647</v>
       </c>
-      <c r="C42" t="n">
+      <c r="D42" t="n">
         <v>3.22767911930381</v>
       </c>
-      <c r="D42" t="n">
+      <c r="E42" t="n">
         <v>106.422290164872</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>216</v>
-      </c>
-      <c r="B43" t="n">
+        <v>386</v>
+      </c>
+      <c r="B43" t="s">
+        <v>387</v>
+      </c>
+      <c r="C43" t="n">
         <v>15.5808244154577</v>
       </c>
-      <c r="C43" t="n">
+      <c r="D43" t="n">
         <v>0.152866007258786</v>
       </c>
-      <c r="D43" t="n">
+      <c r="E43" t="n">
         <v>101.924716258736</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>217</v>
-      </c>
-      <c r="B44" t="n">
+        <v>388</v>
+      </c>
+      <c r="B44" t="s">
+        <v>389</v>
+      </c>
+      <c r="C44" t="n">
         <v>0</v>
       </c>
-      <c r="C44" t="n">
+      <c r="D44" t="n">
         <v>0.726189428492877</v>
       </c>
-      <c r="D44" t="n">
+      <c r="E44" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>218</v>
-      </c>
-      <c r="B45" t="n">
+        <v>390</v>
+      </c>
+      <c r="B45" t="s">
+        <v>281</v>
+      </c>
+      <c r="C45" t="n">
         <v>474.657731253596</v>
       </c>
-      <c r="C45" t="n">
+      <c r="D45" t="n">
         <v>4.75026901934175</v>
       </c>
-      <c r="D45" t="n">
+      <c r="E45" t="n">
         <v>99.9222842582017</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>219</v>
-      </c>
-      <c r="B46" t="n">
+        <v>391</v>
+      </c>
+      <c r="B46" t="s">
+        <v>283</v>
+      </c>
+      <c r="C46" t="n">
         <v>50.9814030321104</v>
       </c>
-      <c r="C46" t="n">
+      <c r="D46" t="n">
         <v>0.509328642674851</v>
       </c>
-      <c r="D46" t="n">
+      <c r="E46" t="n">
         <v>100.095299499298</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>220</v>
-      </c>
-      <c r="B47" t="n">
+        <v>392</v>
+      </c>
+      <c r="B47" t="s">
+        <v>393</v>
+      </c>
+      <c r="C47" t="n">
         <v>85.5068480650932</v>
       </c>
-      <c r="C47" t="n">
+      <c r="D47" t="n">
         <v>0.822053917178609</v>
       </c>
-      <c r="D47" t="n">
+      <c r="E47" t="n">
         <v>104.016106824919</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>221</v>
-      </c>
-      <c r="B48" t="n">
+        <v>394</v>
+      </c>
+      <c r="B48" t="s">
+        <v>395</v>
+      </c>
+      <c r="C48" t="n">
         <v>6.48890941537358</v>
       </c>
-      <c r="C48" t="n">
+      <c r="D48" t="n">
         <v>0.0648890941537358</v>
       </c>
-      <c r="D48" t="n">
+      <c r="E48" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>222</v>
-      </c>
-      <c r="B49" t="n">
+        <v>396</v>
+      </c>
+      <c r="B49" t="s">
+        <v>288</v>
+      </c>
+      <c r="C49" t="n">
         <v>218.976131329872</v>
       </c>
-      <c r="C49" t="n">
+      <c r="D49" t="n">
         <v>2.18976131329872</v>
       </c>
-      <c r="D49" t="n">
+      <c r="E49" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>223</v>
-      </c>
-      <c r="B50" t="n">
+        <v>397</v>
+      </c>
+      <c r="B50" t="s">
+        <v>290</v>
+      </c>
+      <c r="C50" t="n">
         <v>100.556034445717</v>
       </c>
-      <c r="C50" t="n">
+      <c r="D50" t="n">
         <v>1.0162478276322</v>
       </c>
-      <c r="D50" t="n">
+      <c r="E50" t="n">
         <v>98.9483388909244</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>224</v>
-      </c>
-      <c r="B51" t="n">
+        <v>398</v>
+      </c>
+      <c r="B51" t="s">
+        <v>399</v>
+      </c>
+      <c r="C51" t="n">
         <v>3.18005685352066</v>
       </c>
-      <c r="C51" t="n">
+      <c r="D51" t="n">
         <v>0.0318005685352066</v>
       </c>
-      <c r="D51" t="n">
+      <c r="E51" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>225</v>
-      </c>
-      <c r="B52" t="n">
+        <v>400</v>
+      </c>
+      <c r="B52" t="s">
+        <v>401</v>
+      </c>
+      <c r="C52" t="n">
         <v>19.1526523772046</v>
       </c>
-      <c r="C52" t="n">
+      <c r="D52" t="n">
         <v>0.191526725190851</v>
       </c>
-      <c r="D52" t="n">
+      <c r="E52" t="n">
         <v>99.9998948351436</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>226</v>
-      </c>
-      <c r="B53" t="n">
+        <v>402</v>
+      </c>
+      <c r="B53" t="s">
+        <v>403</v>
+      </c>
+      <c r="C53" t="n">
         <v>624.00703330026</v>
       </c>
-      <c r="C53" t="n">
+      <c r="D53" t="n">
         <v>6.45117355080922</v>
       </c>
-      <c r="D53" t="n">
+      <c r="E53" t="n">
         <v>96.7276772800487</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>227</v>
-      </c>
-      <c r="B54" t="n">
+        <v>404</v>
+      </c>
+      <c r="B54" t="s">
+        <v>405</v>
+      </c>
+      <c r="C54" t="n">
         <v>18.7038746694366</v>
       </c>
-      <c r="C54" t="n">
+      <c r="D54" t="n">
         <v>0.187038746694366</v>
       </c>
-      <c r="D54" t="n">
+      <c r="E54" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>228</v>
-      </c>
-      <c r="B55" t="n">
+        <v>406</v>
+      </c>
+      <c r="B55" t="s">
+        <v>407</v>
+      </c>
+      <c r="C55" t="n">
         <v>21.4919020049417</v>
       </c>
-      <c r="C55" t="n">
+      <c r="D55" t="n">
         <v>0.214919020049417</v>
       </c>
-      <c r="D55" t="n">
+      <c r="E55" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>229</v>
-      </c>
-      <c r="B56" t="n">
+        <v>408</v>
+      </c>
+      <c r="B56" t="s">
+        <v>409</v>
+      </c>
+      <c r="C56" t="n">
         <v>63.6318193134988</v>
       </c>
-      <c r="C56" t="n">
+      <c r="D56" t="n">
         <v>0.651798405259911</v>
       </c>
-      <c r="D56" t="n">
+      <c r="E56" t="n">
         <v>97.625</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>230</v>
-      </c>
-      <c r="B57" t="n">
+        <v>410</v>
+      </c>
+      <c r="B57" t="s">
+        <v>411</v>
+      </c>
+      <c r="C57" t="n">
         <v>15.9855840604306</v>
       </c>
-      <c r="C57" t="n">
+      <c r="D57" t="n">
         <v>0.159855840604306</v>
       </c>
-      <c r="D57" t="n">
+      <c r="E57" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>231</v>
-      </c>
-      <c r="B58" t="n">
+        <v>412</v>
+      </c>
+      <c r="B58" t="s">
+        <v>413</v>
+      </c>
+      <c r="C58" t="n">
         <v>200.540834432204</v>
       </c>
-      <c r="C58" t="n">
+      <c r="D58" t="n">
         <v>1.99800221349396</v>
       </c>
-      <c r="D58" t="n">
+      <c r="E58" t="n">
         <v>100.370676807966</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>232</v>
-      </c>
-      <c r="B59" t="n">
+        <v>414</v>
+      </c>
+      <c r="B59" t="s">
+        <v>415</v>
+      </c>
+      <c r="C59" t="n">
         <v>177.705355671819</v>
       </c>
-      <c r="C59" t="n">
+      <c r="D59" t="n">
         <v>1.77705355671819</v>
       </c>
-      <c r="D59" t="n">
+      <c r="E59" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>233</v>
-      </c>
-      <c r="B60" t="n">
+        <v>416</v>
+      </c>
+      <c r="B60" t="s">
+        <v>417</v>
+      </c>
+      <c r="C60" t="n">
         <v>49.9411129194166</v>
       </c>
-      <c r="C60" t="n">
+      <c r="D60" t="n">
         <v>0.499411129194166</v>
       </c>
-      <c r="D60" t="n">
+      <c r="E60" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>234</v>
-      </c>
-      <c r="B61" t="n">
+        <v>418</v>
+      </c>
+      <c r="B61" t="s">
+        <v>419</v>
+      </c>
+      <c r="C61" t="n">
         <v>48.7254188696169</v>
       </c>
-      <c r="C61" t="n">
+      <c r="D61" t="n">
         <v>0.487254188696169</v>
       </c>
-      <c r="D61" t="n">
+      <c r="E61" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>235</v>
-      </c>
-      <c r="B62" t="n">
+        <v>420</v>
+      </c>
+      <c r="B62" t="s">
+        <v>421</v>
+      </c>
+      <c r="C62" t="n">
         <v>65.7727233866718</v>
       </c>
-      <c r="C62" t="n">
+      <c r="D62" t="n">
         <v>0.6822724137232</v>
       </c>
-      <c r="D62" t="n">
+      <c r="E62" t="n">
         <v>96.4024370086228</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>236</v>
-      </c>
-      <c r="B63" t="n">
+        <v>422</v>
+      </c>
+      <c r="B63" t="s">
+        <v>423</v>
+      </c>
+      <c r="C63" t="n">
         <v>62.4443082078958</v>
       </c>
-      <c r="C63" t="n">
+      <c r="D63" t="n">
         <v>0.624443082078958</v>
       </c>
-      <c r="D63" t="n">
+      <c r="E63" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>237</v>
-      </c>
-      <c r="B64" t="n">
+        <v>424</v>
+      </c>
+      <c r="B64" t="s">
+        <v>425</v>
+      </c>
+      <c r="C64" t="n">
         <v>248.893660626601</v>
       </c>
-      <c r="C64" t="n">
+      <c r="D64" t="n">
         <v>2.48880742537088</v>
       </c>
-      <c r="D64" t="n">
+      <c r="E64" t="n">
         <v>100.005190473711</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>238</v>
-      </c>
-      <c r="B65" t="n">
+        <v>426</v>
+      </c>
+      <c r="B65" t="s">
+        <v>310</v>
+      </c>
+      <c r="C65" t="n">
         <v>234.080105441094</v>
       </c>
-      <c r="C65" t="n">
+      <c r="D65" t="n">
         <v>2.29756047778635</v>
       </c>
-      <c r="D65" t="n">
+      <c r="E65" t="n">
         <v>101.882021258751</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>239</v>
-      </c>
-      <c r="B66" t="n">
+        <v>427</v>
+      </c>
+      <c r="B66" t="s">
+        <v>428</v>
+      </c>
+      <c r="C66" t="n">
         <v>11.1576342703959</v>
       </c>
-      <c r="C66" t="n">
+      <c r="D66" t="n">
         <v>0.111576342703959</v>
       </c>
-      <c r="D66" t="n">
+      <c r="E66" t="n">
         <v>99.9999999999997</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>240</v>
-      </c>
-      <c r="B67" t="n">
+        <v>429</v>
+      </c>
+      <c r="B67" t="s">
+        <v>430</v>
+      </c>
+      <c r="C67" t="n">
         <v>23.1504124416427</v>
       </c>
-      <c r="C67" t="n">
+      <c r="D67" t="n">
         <v>0.231504124416427</v>
       </c>
-      <c r="D67" t="n">
+      <c r="E67" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>241</v>
-      </c>
-      <c r="B68" t="n">
+        <v>431</v>
+      </c>
+      <c r="B68" t="s">
+        <v>432</v>
+      </c>
+      <c r="C68" t="n">
         <v>4.05379818122482</v>
       </c>
-      <c r="C68" t="n">
+      <c r="D68" t="n">
         <v>0.0405379818122482</v>
       </c>
-      <c r="D68" t="n">
+      <c r="E68" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>242</v>
-      </c>
-      <c r="B69" t="n">
+        <v>433</v>
+      </c>
+      <c r="B69" t="s">
+        <v>434</v>
+      </c>
+      <c r="C69" t="n">
         <v>9.1694407202175</v>
       </c>
-      <c r="C69" t="n">
+      <c r="D69" t="n">
         <v>0.0922825525448037</v>
       </c>
-      <c r="D69" t="n">
+      <c r="E69" t="n">
         <v>99.3626689700167</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>243</v>
-      </c>
-      <c r="B70" t="n">
+        <v>435</v>
+      </c>
+      <c r="B70" t="s">
+        <v>436</v>
+      </c>
+      <c r="C70" t="n">
         <v>69.5985202977849</v>
       </c>
-      <c r="C70" t="n">
+      <c r="D70" t="n">
         <v>0.695985202977849</v>
       </c>
-      <c r="D70" t="n">
+      <c r="E70" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>244</v>
-      </c>
-      <c r="B71" t="n">
+        <v>437</v>
+      </c>
+      <c r="B71" t="s">
+        <v>438</v>
+      </c>
+      <c r="C71" t="n">
         <v>82.7384983055281</v>
       </c>
-      <c r="C71" t="n">
+      <c r="D71" t="n">
         <v>0.827188868273618</v>
       </c>
-      <c r="D71" t="n">
+      <c r="E71" t="n">
         <v>100.023708585691</v>
       </c>
     </row>
@@ -4322,617 +5998,749 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>245</v>
+        <v>439</v>
       </c>
       <c r="B1" t="s">
-        <v>95</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>96</v>
+        <v>189</v>
       </c>
       <c r="D1" t="s">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>246</v>
-      </c>
-      <c r="B2" t="n">
+        <v>440</v>
+      </c>
+      <c r="B2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C2" t="n">
         <v>723.660247656451</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>7.37061488307858</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>98.1818015370504</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>247</v>
-      </c>
-      <c r="B3" t="n">
+        <v>441</v>
+      </c>
+      <c r="B3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C3" t="n">
         <v>34.9600721707327</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>0.655450496482192</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>53.3374714922998</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>248</v>
-      </c>
-      <c r="B4" t="n">
+        <v>442</v>
+      </c>
+      <c r="B4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C4" t="n">
         <v>177.887172938856</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>1.76775218921772</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>100.629021434037</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>249</v>
-      </c>
-      <c r="B5" t="n">
+        <v>443</v>
+      </c>
+      <c r="B5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C5" t="n">
         <v>352.361879530556</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>4.34891356745667</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>81.022966785846</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>250</v>
-      </c>
-      <c r="B6" t="n">
+        <v>444</v>
+      </c>
+      <c r="B6" t="s">
+        <v>205</v>
+      </c>
+      <c r="C6" t="n">
         <v>156.117043528886</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>1.57057337518279</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>99.4013052785365</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>251</v>
-      </c>
-      <c r="B7" t="n">
+        <v>445</v>
+      </c>
+      <c r="B7" t="s">
+        <v>446</v>
+      </c>
+      <c r="C7" t="n">
         <v>200.58477352308</v>
       </c>
-      <c r="C7" t="n">
+      <c r="D7" t="n">
         <v>2.02941413812204</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>98.8387583170655</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>252</v>
-      </c>
-      <c r="B8" t="n">
+        <v>447</v>
+      </c>
+      <c r="B8" t="s">
+        <v>448</v>
+      </c>
+      <c r="C8" t="n">
         <v>1045.83909677222</v>
       </c>
-      <c r="C8" t="n">
+      <c r="D8" t="n">
         <v>12.8223860199456</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>81.5635323367575</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>253</v>
-      </c>
-      <c r="B9" t="n">
+        <v>449</v>
+      </c>
+      <c r="B9" t="s">
+        <v>337</v>
+      </c>
+      <c r="C9" t="n">
         <v>284.068039853339</v>
       </c>
-      <c r="C9" t="n">
+      <c r="D9" t="n">
         <v>2.87339000147229</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>98.8616371977998</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>254</v>
-      </c>
-      <c r="B10" t="n">
+        <v>450</v>
+      </c>
+      <c r="B10" t="s">
+        <v>230</v>
+      </c>
+      <c r="C10" t="n">
         <v>498.177241656108</v>
       </c>
-      <c r="C10" t="n">
+      <c r="D10" t="n">
         <v>4.98662799130946</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>99.9026280934363</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>255</v>
-      </c>
-      <c r="B11" t="n">
+        <v>451</v>
+      </c>
+      <c r="B11" t="s">
+        <v>238</v>
+      </c>
+      <c r="C11" t="n">
         <v>0</v>
       </c>
-      <c r="C11" t="n">
+      <c r="D11" t="n">
         <v>0.186706556541633</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>256</v>
-      </c>
-      <c r="B12" t="n">
+        <v>452</v>
+      </c>
+      <c r="B12" t="s">
+        <v>240</v>
+      </c>
+      <c r="C12" t="n">
         <v>125.27532003264</v>
       </c>
-      <c r="C12" t="n">
+      <c r="D12" t="n">
         <v>1.24869445208775</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
         <v>100.32503934264</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>257</v>
-      </c>
-      <c r="B13" t="n">
+        <v>453</v>
+      </c>
+      <c r="B13" t="s">
+        <v>243</v>
+      </c>
+      <c r="C13" t="n">
         <v>88.3015748462375</v>
       </c>
-      <c r="C13" t="n">
+      <c r="D13" t="n">
         <v>0.877653860454073</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>100.610934247532</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>258</v>
-      </c>
-      <c r="B14" t="n">
+        <v>454</v>
+      </c>
+      <c r="B14" t="s">
+        <v>352</v>
+      </c>
+      <c r="C14" t="n">
         <v>359.055152454556</v>
       </c>
-      <c r="C14" t="n">
+      <c r="D14" t="n">
         <v>3.72042418761232</v>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
         <v>96.5091974324007</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>259</v>
-      </c>
-      <c r="B15" t="n">
+        <v>455</v>
+      </c>
+      <c r="B15" t="s">
+        <v>456</v>
+      </c>
+      <c r="C15" t="n">
         <v>21.953659644555</v>
       </c>
-      <c r="C15" t="n">
+      <c r="D15" t="n">
         <v>0.21953659644555</v>
       </c>
-      <c r="D15" t="n">
+      <c r="E15" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>260</v>
-      </c>
-      <c r="B16" t="n">
+        <v>457</v>
+      </c>
+      <c r="B16" t="s">
+        <v>356</v>
+      </c>
+      <c r="C16" t="n">
         <v>85.9086968806719</v>
       </c>
-      <c r="C16" t="n">
+      <c r="D16" t="n">
         <v>0.853787860838277</v>
       </c>
-      <c r="D16" t="n">
+      <c r="E16" t="n">
         <v>100.620658621597</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>261</v>
-      </c>
-      <c r="B17" t="n">
+        <v>458</v>
+      </c>
+      <c r="B17" t="s">
+        <v>252</v>
+      </c>
+      <c r="C17" t="n">
         <v>94.0207968782715</v>
       </c>
-      <c r="C17" t="n">
+      <c r="D17" t="n">
         <v>0.91520426861415</v>
       </c>
-      <c r="D17" t="n">
+      <c r="E17" t="n">
         <v>102.732034915705</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>262</v>
-      </c>
-      <c r="B18" t="n">
+        <v>459</v>
+      </c>
+      <c r="B18" t="s">
+        <v>460</v>
+      </c>
+      <c r="C18" t="n">
         <v>73.7730077600202</v>
       </c>
-      <c r="C18" t="n">
+      <c r="D18" t="n">
         <v>0.757666379617845</v>
       </c>
-      <c r="D18" t="n">
+      <c r="E18" t="n">
         <v>97.3687228899217</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>263</v>
-      </c>
-      <c r="B19" t="n">
+        <v>461</v>
+      </c>
+      <c r="B19" t="s">
+        <v>462</v>
+      </c>
+      <c r="C19" t="n">
         <v>413.488934942749</v>
       </c>
-      <c r="C19" t="n">
+      <c r="D19" t="n">
         <v>4.12715381328589</v>
       </c>
-      <c r="D19" t="n">
+      <c r="E19" t="n">
         <v>100.187430284684</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>264</v>
-      </c>
-      <c r="B20" t="n">
+        <v>463</v>
+      </c>
+      <c r="B20" t="s">
+        <v>464</v>
+      </c>
+      <c r="C20" t="n">
         <v>46.9888696588825</v>
       </c>
-      <c r="C20" t="n">
+      <c r="D20" t="n">
         <v>0.450826104793016</v>
       </c>
-      <c r="D20" t="n">
+      <c r="E20" t="n">
         <v>104.228369119078</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>265</v>
-      </c>
-      <c r="B21" t="n">
+        <v>465</v>
+      </c>
+      <c r="B21" t="s">
+        <v>466</v>
+      </c>
+      <c r="C21" t="n">
         <v>433.962895156451</v>
       </c>
-      <c r="C21" t="n">
+      <c r="D21" t="n">
         <v>4.40221892507898</v>
       </c>
-      <c r="D21" t="n">
+      <c r="E21" t="n">
         <v>98.578217608445</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>266</v>
-      </c>
-      <c r="B22" t="n">
+        <v>467</v>
+      </c>
+      <c r="B22" t="s">
+        <v>468</v>
+      </c>
+      <c r="C22" t="n">
         <v>500.532526473152</v>
       </c>
-      <c r="C22" t="n">
+      <c r="D22" t="n">
         <v>4.98260867915758</v>
       </c>
-      <c r="D22" t="n">
+      <c r="E22" t="n">
         <v>100.455917513028</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>267</v>
-      </c>
-      <c r="B23" t="n">
+        <v>469</v>
+      </c>
+      <c r="B23" t="s">
+        <v>385</v>
+      </c>
+      <c r="C23" t="n">
         <v>343.497003793647</v>
       </c>
-      <c r="C23" t="n">
+      <c r="D23" t="n">
         <v>3.22767911930381</v>
       </c>
-      <c r="D23" t="n">
+      <c r="E23" t="n">
         <v>106.422290164872</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>268</v>
-      </c>
-      <c r="B24" t="n">
+        <v>470</v>
+      </c>
+      <c r="B24" t="s">
+        <v>278</v>
+      </c>
+      <c r="C24" t="n">
         <v>15.5808244154577</v>
       </c>
-      <c r="C24" t="n">
+      <c r="D24" t="n">
         <v>0.879055435751663</v>
       </c>
-      <c r="D24" t="n">
+      <c r="E24" t="n">
         <v>17.7245072173802</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>269</v>
-      </c>
-      <c r="B25" t="n">
+        <v>471</v>
+      </c>
+      <c r="B25" t="s">
+        <v>281</v>
+      </c>
+      <c r="C25" t="n">
         <v>474.657731253596</v>
       </c>
-      <c r="C25" t="n">
+      <c r="D25" t="n">
         <v>4.75026901934175</v>
       </c>
-      <c r="D25" t="n">
+      <c r="E25" t="n">
         <v>99.9222842582017</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>270</v>
-      </c>
-      <c r="B26" t="n">
+        <v>472</v>
+      </c>
+      <c r="B26" t="s">
+        <v>283</v>
+      </c>
+      <c r="C26" t="n">
         <v>50.9814030321104</v>
       </c>
-      <c r="C26" t="n">
+      <c r="D26" t="n">
         <v>0.509328642674851</v>
       </c>
-      <c r="D26" t="n">
+      <c r="E26" t="n">
         <v>100.095299499298</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>271</v>
-      </c>
-      <c r="B27" t="n">
+        <v>473</v>
+      </c>
+      <c r="B27" t="s">
+        <v>474</v>
+      </c>
+      <c r="C27" t="n">
         <v>433.860632486781</v>
       </c>
-      <c r="C27" t="n">
+      <c r="D27" t="n">
         <v>4.31627944598932</v>
       </c>
-      <c r="D27" t="n">
+      <c r="E27" t="n">
         <v>100.517271394447</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>272</v>
-      </c>
-      <c r="B28" t="n">
+        <v>475</v>
+      </c>
+      <c r="B28" t="s">
+        <v>403</v>
+      </c>
+      <c r="C28" t="n">
         <v>624.00703330026</v>
       </c>
-      <c r="C28" t="n">
+      <c r="D28" t="n">
         <v>6.45117355080922</v>
       </c>
-      <c r="D28" t="n">
+      <c r="E28" t="n">
         <v>96.7276772800487</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>273</v>
-      </c>
-      <c r="B29" t="n">
+        <v>476</v>
+      </c>
+      <c r="B29" t="s">
+        <v>405</v>
+      </c>
+      <c r="C29" t="n">
         <v>18.7038746694366</v>
       </c>
-      <c r="C29" t="n">
+      <c r="D29" t="n">
         <v>0.187038746694366</v>
       </c>
-      <c r="D29" t="n">
+      <c r="E29" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>274</v>
-      </c>
-      <c r="B30" t="n">
+        <v>477</v>
+      </c>
+      <c r="B30" t="s">
+        <v>478</v>
+      </c>
+      <c r="C30" t="n">
         <v>21.4919020049417</v>
       </c>
-      <c r="C30" t="n">
+      <c r="D30" t="n">
         <v>0.214919020049417</v>
       </c>
-      <c r="D30" t="n">
+      <c r="E30" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>275</v>
-      </c>
-      <c r="B31" t="n">
+        <v>479</v>
+      </c>
+      <c r="B31" t="s">
+        <v>480</v>
+      </c>
+      <c r="C31" t="n">
         <v>79.6174033739294</v>
       </c>
-      <c r="C31" t="n">
+      <c r="D31" t="n">
         <v>0.811654245864217</v>
       </c>
-      <c r="D31" t="n">
+      <c r="E31" t="n">
         <v>98.0927578209808</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>276</v>
-      </c>
-      <c r="B32" t="n">
+        <v>481</v>
+      </c>
+      <c r="B32" t="s">
+        <v>482</v>
+      </c>
+      <c r="C32" t="n">
         <v>200.540834432204</v>
       </c>
-      <c r="C32" t="n">
+      <c r="D32" t="n">
         <v>1.99800221349396</v>
       </c>
-      <c r="D32" t="n">
+      <c r="E32" t="n">
         <v>100.370676807966</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>277</v>
-      </c>
-      <c r="B33" t="n">
+        <v>483</v>
+      </c>
+      <c r="B33" t="s">
+        <v>484</v>
+      </c>
+      <c r="C33" t="n">
         <v>177.705355671819</v>
       </c>
-      <c r="C33" t="n">
+      <c r="D33" t="n">
         <v>1.77705355671819</v>
       </c>
-      <c r="D33" t="n">
+      <c r="E33" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>278</v>
-      </c>
-      <c r="B34" t="n">
+        <v>485</v>
+      </c>
+      <c r="B34" t="s">
+        <v>486</v>
+      </c>
+      <c r="C34" t="n">
         <v>49.9411129194166</v>
       </c>
-      <c r="C34" t="n">
+      <c r="D34" t="n">
         <v>0.499411129194166</v>
       </c>
-      <c r="D34" t="n">
+      <c r="E34" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>279</v>
-      </c>
-      <c r="B35" t="n">
+        <v>487</v>
+      </c>
+      <c r="B35" t="s">
+        <v>419</v>
+      </c>
+      <c r="C35" t="n">
         <v>48.7254188696169</v>
       </c>
-      <c r="C35" t="n">
+      <c r="D35" t="n">
         <v>0.487254188696169</v>
       </c>
-      <c r="D35" t="n">
+      <c r="E35" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>280</v>
-      </c>
-      <c r="B36" t="n">
+        <v>488</v>
+      </c>
+      <c r="B36" t="s">
+        <v>421</v>
+      </c>
+      <c r="C36" t="n">
         <v>65.7727233866718</v>
       </c>
-      <c r="C36" t="n">
+      <c r="D36" t="n">
         <v>0.6822724137232</v>
       </c>
-      <c r="D36" t="n">
+      <c r="E36" t="n">
         <v>96.4024370086228</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>281</v>
-      </c>
-      <c r="B37" t="n">
+        <v>489</v>
+      </c>
+      <c r="B37" t="s">
+        <v>423</v>
+      </c>
+      <c r="C37" t="n">
         <v>62.4443082078958</v>
       </c>
-      <c r="C37" t="n">
+      <c r="D37" t="n">
         <v>0.624443082078958</v>
       </c>
-      <c r="D37" t="n">
+      <c r="E37" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>282</v>
-      </c>
-      <c r="B38" t="n">
+        <v>490</v>
+      </c>
+      <c r="B38" t="s">
+        <v>491</v>
+      </c>
+      <c r="C38" t="n">
         <v>248.893660626601</v>
       </c>
-      <c r="C38" t="n">
+      <c r="D38" t="n">
         <v>2.48880742537088</v>
       </c>
-      <c r="D38" t="n">
+      <c r="E38" t="n">
         <v>100.005190473711</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>283</v>
-      </c>
-      <c r="B39" t="n">
+        <v>492</v>
+      </c>
+      <c r="B39" t="s">
+        <v>310</v>
+      </c>
+      <c r="C39" t="n">
         <v>234.080105441094</v>
       </c>
-      <c r="C39" t="n">
+      <c r="D39" t="n">
         <v>2.29756047778635</v>
       </c>
-      <c r="D39" t="n">
+      <c r="E39" t="n">
         <v>101.882021258751</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>284</v>
-      </c>
-      <c r="B40" t="n">
+        <v>493</v>
+      </c>
+      <c r="B40" t="s">
+        <v>494</v>
+      </c>
+      <c r="C40" t="n">
         <v>34.3080467120386</v>
       </c>
-      <c r="C40" t="n">
+      <c r="D40" t="n">
         <v>0.343080467120386</v>
       </c>
-      <c r="D40" t="n">
+      <c r="E40" t="n">
         <v>99.9999999999999</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>285</v>
-      </c>
-      <c r="B41" t="n">
+        <v>495</v>
+      </c>
+      <c r="B41" t="s">
+        <v>432</v>
+      </c>
+      <c r="C41" t="n">
         <v>4.05379818122482</v>
       </c>
-      <c r="C41" t="n">
+      <c r="D41" t="n">
         <v>0.0405379818122482</v>
       </c>
-      <c r="D41" t="n">
+      <c r="E41" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>286</v>
-      </c>
-      <c r="B42" t="n">
+        <v>496</v>
+      </c>
+      <c r="B42" t="s">
+        <v>434</v>
+      </c>
+      <c r="C42" t="n">
         <v>9.1694407202175</v>
       </c>
-      <c r="C42" t="n">
+      <c r="D42" t="n">
         <v>0.0922825525448037</v>
       </c>
-      <c r="D42" t="n">
+      <c r="E42" t="n">
         <v>99.3626689700167</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>287</v>
-      </c>
-      <c r="B43" t="n">
+        <v>497</v>
+      </c>
+      <c r="B43" t="s">
+        <v>436</v>
+      </c>
+      <c r="C43" t="n">
         <v>69.5985202977849</v>
       </c>
-      <c r="C43" t="n">
+      <c r="D43" t="n">
         <v>0.695985202977849</v>
       </c>
-      <c r="D43" t="n">
+      <c r="E43" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>288</v>
-      </c>
-      <c r="B44" t="n">
+        <v>498</v>
+      </c>
+      <c r="B44" t="s">
+        <v>438</v>
+      </c>
+      <c r="C44" t="n">
         <v>82.7384983055281</v>
       </c>
-      <c r="C44" t="n">
+      <c r="D44" t="n">
         <v>0.827188868273618</v>
       </c>
-      <c r="D44" t="n">
+      <c r="E44" t="n">
         <v>100.023708585691</v>
       </c>
     </row>
@@ -4952,295 +6760,358 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>289</v>
+        <v>499</v>
       </c>
       <c r="B1" t="s">
-        <v>95</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>96</v>
+        <v>189</v>
       </c>
       <c r="D1" t="s">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>290</v>
-      </c>
-      <c r="B2" t="n">
+        <v>500</v>
+      </c>
+      <c r="B2" t="s">
+        <v>501</v>
+      </c>
+      <c r="C2" t="n">
         <v>2975.47832597412</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>33.4384946709579</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>88.9836206818962</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>291</v>
-      </c>
-      <c r="B3" t="n">
+        <v>502</v>
+      </c>
+      <c r="B3" t="s">
+        <v>503</v>
+      </c>
+      <c r="C3" t="n">
         <v>498.177241656108</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>4.98662799130946</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>99.9026280934363</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>292</v>
-      </c>
-      <c r="B4" t="n">
+        <v>504</v>
+      </c>
+      <c r="B4" t="s">
+        <v>238</v>
+      </c>
+      <c r="C4" t="n">
         <v>0</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>0.186706556541633</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>293</v>
-      </c>
-      <c r="B5" t="n">
+        <v>505</v>
+      </c>
+      <c r="B5" t="s">
+        <v>506</v>
+      </c>
+      <c r="C5" t="n">
         <v>213.576894878878</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>2.12634831254182</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>100.443042947921</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>294</v>
-      </c>
-      <c r="B6" t="n">
+        <v>507</v>
+      </c>
+      <c r="B6" t="s">
+        <v>246</v>
+      </c>
+      <c r="C6" t="n">
         <v>359.055152454556</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>3.72042418761232</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>96.5091974324007</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>295</v>
-      </c>
-      <c r="B7" t="n">
+        <v>508</v>
+      </c>
+      <c r="B7" t="s">
+        <v>509</v>
+      </c>
+      <c r="C7" t="n">
         <v>107.862356525227</v>
       </c>
-      <c r="C7" t="n">
+      <c r="D7" t="n">
         <v>1.07332445728383</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>100.493709794134</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>296</v>
-      </c>
-      <c r="B8" t="n">
+        <v>510</v>
+      </c>
+      <c r="B8" t="s">
+        <v>511</v>
+      </c>
+      <c r="C8" t="n">
         <v>167.793804638292</v>
       </c>
-      <c r="C8" t="n">
+      <c r="D8" t="n">
         <v>1.672870648232</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>100.302916316708</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>297</v>
-      </c>
-      <c r="B9" t="n">
+        <v>512</v>
+      </c>
+      <c r="B9" t="s">
+        <v>462</v>
+      </c>
+      <c r="C9" t="n">
         <v>413.488934942749</v>
       </c>
-      <c r="C9" t="n">
+      <c r="D9" t="n">
         <v>4.12715381328589</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>100.187430284684</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>298</v>
-      </c>
-      <c r="B10" t="n">
+        <v>513</v>
+      </c>
+      <c r="B10" t="s">
+        <v>514</v>
+      </c>
+      <c r="C10" t="n">
         <v>46.9888696588825</v>
       </c>
-      <c r="C10" t="n">
+      <c r="D10" t="n">
         <v>0.450826104793016</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>104.228369119078</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>299</v>
-      </c>
-      <c r="B11" t="n">
+        <v>515</v>
+      </c>
+      <c r="B11" t="s">
+        <v>516</v>
+      </c>
+      <c r="C11" t="n">
         <v>934.495421629602</v>
       </c>
-      <c r="C11" t="n">
+      <c r="D11" t="n">
         <v>9.38482760423656</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
         <v>99.5751292445422</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>300</v>
-      </c>
-      <c r="B12" t="n">
+        <v>517</v>
+      </c>
+      <c r="B12" t="s">
+        <v>276</v>
+      </c>
+      <c r="C12" t="n">
         <v>343.497003793647</v>
       </c>
-      <c r="C12" t="n">
+      <c r="D12" t="n">
         <v>3.22767911930381</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
         <v>106.422290164872</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>301</v>
-      </c>
-      <c r="B13" t="n">
+        <v>518</v>
+      </c>
+      <c r="B13" t="s">
+        <v>519</v>
+      </c>
+      <c r="C13" t="n">
         <v>490.238555669053</v>
       </c>
-      <c r="C13" t="n">
+      <c r="D13" t="n">
         <v>5.62932445509342</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>87.0865695484092</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>302</v>
-      </c>
-      <c r="B14" t="n">
+        <v>520</v>
+      </c>
+      <c r="B14" t="s">
+        <v>292</v>
+      </c>
+      <c r="C14" t="n">
         <v>484.842035518891</v>
       </c>
-      <c r="C14" t="n">
+      <c r="D14" t="n">
         <v>4.82560808866417</v>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
         <v>100.472733510588</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>303</v>
-      </c>
-      <c r="B15" t="n">
+        <v>521</v>
+      </c>
+      <c r="B15" t="s">
+        <v>295</v>
+      </c>
+      <c r="C15" t="n">
         <v>664.202809974638</v>
       </c>
-      <c r="C15" t="n">
+      <c r="D15" t="n">
         <v>6.853131317553</v>
       </c>
-      <c r="D15" t="n">
+      <c r="E15" t="n">
         <v>96.9196093285719</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>304</v>
-      </c>
-      <c r="B16" t="n">
+        <v>522</v>
+      </c>
+      <c r="B16" t="s">
+        <v>299</v>
+      </c>
+      <c r="C16" t="n">
         <v>280.158237806133</v>
       </c>
-      <c r="C16" t="n">
+      <c r="D16" t="n">
         <v>2.80965645935818</v>
       </c>
-      <c r="D16" t="n">
+      <c r="E16" t="n">
         <v>99.7126310133058</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>305</v>
-      </c>
-      <c r="B17" t="n">
+        <v>523</v>
+      </c>
+      <c r="B17" t="s">
+        <v>524</v>
+      </c>
+      <c r="C17" t="n">
         <v>227.646468591236</v>
       </c>
-      <c r="C17" t="n">
+      <c r="D17" t="n">
         <v>2.27646468591236</v>
       </c>
-      <c r="D17" t="n">
+      <c r="E17" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>306</v>
-      </c>
-      <c r="B18" t="n">
+        <v>525</v>
+      </c>
+      <c r="B18" t="s">
+        <v>526</v>
+      </c>
+      <c r="C18" t="n">
         <v>114.498142256289</v>
       </c>
-      <c r="C18" t="n">
+      <c r="D18" t="n">
         <v>1.16952660241937</v>
       </c>
-      <c r="D18" t="n">
+      <c r="E18" t="n">
         <v>97.9012722065744</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>307</v>
-      </c>
-      <c r="B19" t="n">
+        <v>527</v>
+      </c>
+      <c r="B19" t="s">
+        <v>528</v>
+      </c>
+      <c r="C19" t="n">
         <v>311.337968834497</v>
       </c>
-      <c r="C19" t="n">
+      <c r="D19" t="n">
         <v>3.11325050744984</v>
       </c>
-      <c r="D19" t="n">
+      <c r="E19" t="n">
         <v>100.004149389676</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>308</v>
-      </c>
-      <c r="B20" t="n">
+        <v>529</v>
+      </c>
+      <c r="B20" t="s">
+        <v>310</v>
+      </c>
+      <c r="C20" t="n">
         <v>234.080105441094</v>
       </c>
-      <c r="C20" t="n">
+      <c r="D20" t="n">
         <v>2.29756047778635</v>
       </c>
-      <c r="D20" t="n">
+      <c r="E20" t="n">
         <v>101.882021258751</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>309</v>
-      </c>
-      <c r="B21" t="n">
+        <v>530</v>
+      </c>
+      <c r="B21" t="s">
+        <v>312</v>
+      </c>
+      <c r="C21" t="n">
         <v>199.868304216794</v>
       </c>
-      <c r="C21" t="n">
+      <c r="D21" t="n">
         <v>1.99907507272891</v>
       </c>
-      <c r="D21" t="n">
+      <c r="E21" t="n">
         <v>99.9803894027636</v>
       </c>
     </row>
@@ -5260,17 +7131,35 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>310</v>
+        <v>531</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>311</v>
-      </c>
-      <c r="B2" t="n">
+        <v>532</v>
+      </c>
+      <c r="B2" t="s">
+        <v>533</v>
+      </c>
+      <c r="C2" t="n">
+        <v>9067.28663446069</v>
+      </c>
+      <c r="D2" t="n">
+        <v>95.3688811330638</v>
+      </c>
+      <c r="E2" t="n">
         <v>95.075946438016</v>
       </c>
     </row>
@@ -5290,182 +7179,182 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>312</v>
+        <v>534</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>313</v>
+        <v>535</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>314</v>
+        <v>536</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>315</v>
+        <v>537</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>316</v>
+        <v>538</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>317</v>
+        <v>539</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>318</v>
+        <v>540</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>319</v>
+        <v>541</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>320</v>
+        <v>542</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>321</v>
+        <v>543</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>322</v>
+        <v>544</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>323</v>
+        <v>545</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>324</v>
+        <v>546</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>325</v>
+        <v>547</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>326</v>
+        <v>548</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>327</v>
+        <v>549</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>328</v>
+        <v>550</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>329</v>
+        <v>551</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>330</v>
+        <v>552</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>331</v>
+        <v>553</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>332</v>
+        <v>554</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>333</v>
+        <v>555</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>334</v>
+        <v>556</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>335</v>
+        <v>557</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>336</v>
+        <v>558</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>337</v>
+        <v>559</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>338</v>
+        <v>560</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>339</v>
+        <v>561</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>340</v>
+        <v>562</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>341</v>
+        <v>563</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>342</v>
+        <v>564</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>343</v>
+        <v>565</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>344</v>
+        <v>566</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>345</v>
+        <v>567</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>346</v>
+        <v>568</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>347</v>
+        <v>569</v>
       </c>
     </row>
   </sheetData>
@@ -5484,97 +7373,97 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>312</v>
+        <v>534</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>348</v>
+        <v>570</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>349</v>
+        <v>571</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>350</v>
+        <v>572</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>351</v>
+        <v>573</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>352</v>
+        <v>574</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>353</v>
+        <v>575</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>354</v>
+        <v>576</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>355</v>
+        <v>577</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>356</v>
+        <v>578</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>357</v>
+        <v>579</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>358</v>
+        <v>580</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>359</v>
+        <v>581</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>360</v>
+        <v>582</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>361</v>
+        <v>583</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>362</v>
+        <v>584</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>363</v>
+        <v>585</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>364</v>
+        <v>586</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>365</v>
+        <v>587</v>
       </c>
     </row>
   </sheetData>
